--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCN_CreateAccessCoreDevice_TestData.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCN_CreateAccessCoreDevice_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="LoadBalancer" sheetId="15" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="MiniDSLAM" sheetId="14" r:id="rId12"/>
     <sheet name="AccessSwitch" sheetId="5" r:id="rId13"/>
     <sheet name="AccessRouter" sheetId="4" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7101" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7100" uniqueCount="848">
   <si>
     <t>Name</t>
   </si>
@@ -477,11 +476,6 @@
   </si>
   <si>
     <t>EC3</t>
-  </si>
-  <si>
-    <t>Need to update in edit device pafge for:
-new premise
-new Site</t>
   </si>
   <si>
     <t>82</t>
@@ -2981,10 +2975,10 @@
   <sheetData>
     <row r="1" spans="1:55" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -3151,10 +3145,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>101</v>
@@ -3178,7 +3172,7 @@
         <v>120</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>6</v>
@@ -3196,7 +3190,7 @@
         <v>60</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>13</v>
@@ -3220,10 +3214,10 @@
         <v>23</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>57</v>
@@ -3232,7 +3226,7 @@
         <v>56</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AD2" s="8" t="s">
         <v>6</v>
@@ -3318,10 +3312,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>101</v>
@@ -3330,7 +3324,7 @@
         <v>102</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
@@ -3345,7 +3339,7 @@
         <v>120</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>6</v>
@@ -3363,7 +3357,7 @@
         <v>60</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>13</v>
@@ -3387,10 +3381,10 @@
         <v>23</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>57</v>
@@ -3399,7 +3393,7 @@
         <v>56</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AD3" s="8" t="s">
         <v>6</v>
@@ -3485,10 +3479,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>101</v>
@@ -3497,7 +3491,7 @@
         <v>102</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -3512,7 +3506,7 @@
         <v>120</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>6</v>
@@ -3530,7 +3524,7 @@
         <v>60</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>13</v>
@@ -3554,10 +3548,10 @@
         <v>23</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>57</v>
@@ -3566,7 +3560,7 @@
         <v>56</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AD4" s="8" t="s">
         <v>6</v>
@@ -3649,13 +3643,13 @@
     </row>
     <row r="5" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>101</v>
@@ -3664,7 +3658,7 @@
         <v>102</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
@@ -3679,7 +3673,7 @@
         <v>120</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>6</v>
@@ -3697,7 +3691,7 @@
         <v>60</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>13</v>
@@ -3721,19 +3715,19 @@
         <v>23</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AB5" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AD5" s="8" t="s">
         <v>6</v>
@@ -3816,13 +3810,13 @@
     </row>
     <row r="6" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>101</v>
@@ -3831,7 +3825,7 @@
         <v>102</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
@@ -3846,7 +3840,7 @@
         <v>120</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>6</v>
@@ -3864,7 +3858,7 @@
         <v>60</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>13</v>
@@ -3888,19 +3882,19 @@
         <v>23</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AB6" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AD6" s="8" t="s">
         <v>6</v>
@@ -3986,10 +3980,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>101</v>
@@ -3998,7 +3992,7 @@
         <v>102</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>6</v>
@@ -4013,7 +4007,7 @@
         <v>120</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>6</v>
@@ -4031,7 +4025,7 @@
         <v>60</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>13</v>
@@ -4055,19 +4049,19 @@
         <v>23</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AB7" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AD7" s="8" t="s">
         <v>6</v>
@@ -4153,10 +4147,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>101</v>
@@ -4165,7 +4159,7 @@
         <v>102</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>13</v>
@@ -4180,7 +4174,7 @@
         <v>120</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>6</v>
@@ -4198,7 +4192,7 @@
         <v>60</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>13</v>
@@ -4222,19 +4216,19 @@
         <v>23</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AB8" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AD8" s="8" t="s">
         <v>6</v>
@@ -4367,10 +4361,10 @@
   <sheetData>
     <row r="1" spans="1:72" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -4588,10 +4582,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>50</v>
@@ -4600,7 +4594,7 @@
         <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -4639,7 +4633,7 @@
         <v>121</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>6</v>
@@ -4651,7 +4645,7 @@
         <v>6</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>1</v>
@@ -4681,10 +4675,10 @@
         <v>6</v>
       </c>
       <c r="AG2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH2" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>57</v>
@@ -4806,10 +4800,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>50</v>
@@ -4818,7 +4812,7 @@
         <v>46</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
@@ -4857,7 +4851,7 @@
         <v>121</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>6</v>
@@ -4869,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>1</v>
@@ -4899,10 +4893,10 @@
         <v>6</v>
       </c>
       <c r="AG3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH3" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="AI3" s="8" t="s">
         <v>57</v>
@@ -5024,10 +5018,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>50</v>
@@ -5036,7 +5030,7 @@
         <v>46</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -5075,7 +5069,7 @@
         <v>121</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>6</v>
@@ -5087,7 +5081,7 @@
         <v>6</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X4" s="5" t="s">
         <v>1</v>
@@ -5117,10 +5111,10 @@
         <v>6</v>
       </c>
       <c r="AG4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH4" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="AH4" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="AI4" s="8" t="s">
         <v>57</v>
@@ -5242,10 +5236,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>50</v>
@@ -5254,7 +5248,7 @@
         <v>46</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>13</v>
@@ -5293,7 +5287,7 @@
         <v>121</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>6</v>
@@ -5305,7 +5299,7 @@
         <v>6</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X5" s="5" t="s">
         <v>1</v>
@@ -5335,10 +5329,10 @@
         <v>6</v>
       </c>
       <c r="AG5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH5" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="AH5" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="AI5" s="8" t="s">
         <v>57</v>
@@ -5460,10 +5454,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>50</v>
@@ -5472,7 +5466,7 @@
         <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
@@ -5511,7 +5505,7 @@
         <v>121</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>6</v>
@@ -5523,7 +5517,7 @@
         <v>6</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>1</v>
@@ -5553,10 +5547,10 @@
         <v>6</v>
       </c>
       <c r="AG6" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="AH6" s="5" t="s">
         <v>847</v>
-      </c>
-      <c r="AH6" s="5" t="s">
-        <v>848</v>
       </c>
       <c r="AI6" s="8" t="s">
         <v>57</v>
@@ -5684,7 +5678,7 @@
   <dimension ref="A1:BC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5723,10 +5717,10 @@
   <sheetData>
     <row r="1" spans="1:55" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -5893,10 +5887,10 @@
         <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>133</v>
@@ -5905,7 +5899,7 @@
         <v>132</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>6</v>
@@ -5920,7 +5914,7 @@
         <v>134</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>6</v>
@@ -5953,22 +5947,22 @@
         <v>20</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>129</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AB2" s="8" t="s">
         <v>56</v>
@@ -6057,13 +6051,13 @@
     </row>
     <row r="3" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>133</v>
@@ -6072,7 +6066,7 @@
         <v>132</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
@@ -6087,7 +6081,7 @@
         <v>134</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>6</v>
@@ -6120,22 +6114,22 @@
         <v>20</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AB3" s="8" t="s">
         <v>56</v>
@@ -6222,15 +6216,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>133</v>
@@ -6239,7 +6233,7 @@
         <v>132</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>6</v>
@@ -6254,7 +6248,7 @@
         <v>134</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>6</v>
@@ -6287,22 +6281,22 @@
         <v>20</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>147</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AB4" s="8" t="s">
         <v>56</v>
@@ -6394,10 +6388,10 @@
         <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>133</v>
@@ -6406,7 +6400,7 @@
         <v>132</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
@@ -6421,7 +6415,7 @@
         <v>134</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>6</v>
@@ -6454,22 +6448,22 @@
         <v>20</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AB5" s="8" t="s">
         <v>56</v>
@@ -6561,10 +6555,10 @@
         <v>60</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>133</v>
@@ -6573,7 +6567,7 @@
         <v>132</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>6</v>
@@ -6588,7 +6582,7 @@
         <v>134</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>6</v>
@@ -6621,22 +6615,22 @@
         <v>20</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AB6" s="8" t="s">
         <v>56</v>
@@ -6728,10 +6722,10 @@
         <v>60</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>133</v>
@@ -6740,7 +6734,7 @@
         <v>132</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>13</v>
@@ -6755,7 +6749,7 @@
         <v>134</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>6</v>
@@ -6788,22 +6782,22 @@
         <v>20</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AB7" s="8" t="s">
         <v>56</v>
@@ -6895,10 +6889,10 @@
         <v>60</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>133</v>
@@ -6907,7 +6901,7 @@
         <v>132</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>6</v>
@@ -6922,7 +6916,7 @@
         <v>134</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>6</v>
@@ -6955,19 +6949,19 @@
         <v>20</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>56</v>
@@ -7062,10 +7056,10 @@
         <v>60</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>133</v>
@@ -7074,7 +7068,7 @@
         <v>132</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -7089,7 +7083,7 @@
         <v>134</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>6</v>
@@ -7122,19 +7116,19 @@
         <v>20</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AA9" s="8" t="s">
         <v>56</v>
@@ -7229,10 +7223,10 @@
         <v>60</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>133</v>
@@ -7241,7 +7235,7 @@
         <v>132</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>6</v>
@@ -7256,7 +7250,7 @@
         <v>134</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>6</v>
@@ -7289,19 +7283,19 @@
         <v>20</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AA10" s="8" t="s">
         <v>56</v>
@@ -7401,7 +7395,7 @@
   <dimension ref="A1:BC9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7429,10 +7423,10 @@
   <sheetData>
     <row r="1" spans="1:55" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -7599,10 +7593,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>97</v>
@@ -7626,7 +7620,7 @@
         <v>120</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>13</v>
@@ -7659,19 +7653,19 @@
         <v>20</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>57</v>
@@ -7763,13 +7757,13 @@
     </row>
     <row r="3" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>97</v>
@@ -7778,7 +7772,7 @@
         <v>98</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
@@ -7793,7 +7787,7 @@
         <v>120</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>13</v>
@@ -7826,19 +7820,19 @@
         <v>20</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>57</v>
@@ -7930,13 +7924,13 @@
     </row>
     <row r="4" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>97</v>
@@ -7945,7 +7939,7 @@
         <v>98</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>6</v>
@@ -7960,7 +7954,7 @@
         <v>120</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>13</v>
@@ -7993,19 +7987,19 @@
         <v>20</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>57</v>
@@ -8100,10 +8094,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>97</v>
@@ -8112,7 +8106,7 @@
         <v>98</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
@@ -8127,7 +8121,7 @@
         <v>120</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
@@ -8160,19 +8154,19 @@
         <v>20</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>57</v>
@@ -8267,10 +8261,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>97</v>
@@ -8279,7 +8273,7 @@
         <v>98</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>6</v>
@@ -8294,7 +8288,7 @@
         <v>120</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>13</v>
@@ -8327,19 +8321,19 @@
         <v>20</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>57</v>
@@ -8434,10 +8428,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>97</v>
@@ -8446,7 +8440,7 @@
         <v>98</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>6</v>
@@ -8461,7 +8455,7 @@
         <v>120</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>13</v>
@@ -8494,19 +8488,19 @@
         <v>20</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>57</v>
@@ -8601,10 +8595,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>97</v>
@@ -8613,7 +8607,7 @@
         <v>98</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>6</v>
@@ -8628,7 +8622,7 @@
         <v>120</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>13</v>
@@ -8661,19 +8655,19 @@
         <v>20</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>57</v>
@@ -8768,10 +8762,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>97</v>
@@ -8780,7 +8774,7 @@
         <v>98</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>6</v>
@@ -8795,7 +8789,7 @@
         <v>120</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>13</v>
@@ -8828,19 +8822,19 @@
         <v>20</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AA9" s="8" t="s">
         <v>57</v>
@@ -8941,7 +8935,7 @@
   <dimension ref="A1:BT8"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8978,10 +8972,10 @@
   <sheetData>
     <row r="1" spans="1:72" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -9199,10 +9193,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -9211,7 +9205,7 @@
         <v>125</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>6</v>
@@ -9250,7 +9244,7 @@
         <v>121</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>6</v>
@@ -9286,16 +9280,16 @@
         <v>20</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>56</v>
@@ -9414,13 +9408,13 @@
     </row>
     <row r="3" spans="1:72" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
@@ -9429,7 +9423,7 @@
         <v>125</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
@@ -9468,7 +9462,7 @@
         <v>121</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>6</v>
@@ -9504,16 +9498,16 @@
         <v>20</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AI3" s="8" t="s">
         <v>56</v>
@@ -9632,13 +9626,13 @@
     </row>
     <row r="4" spans="1:72" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
@@ -9647,7 +9641,7 @@
         <v>125</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -9686,7 +9680,7 @@
         <v>121</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>6</v>
@@ -9722,16 +9716,16 @@
         <v>20</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AI4" s="8" t="s">
         <v>56</v>
@@ -9853,10 +9847,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
@@ -9865,7 +9859,7 @@
         <v>125</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
@@ -9904,7 +9898,7 @@
         <v>121</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>6</v>
@@ -9940,16 +9934,16 @@
         <v>20</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AI5" s="8" t="s">
         <v>56</v>
@@ -10071,10 +10065,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>49</v>
@@ -10083,7 +10077,7 @@
         <v>125</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>6</v>
@@ -10122,7 +10116,7 @@
         <v>121</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>6</v>
@@ -10158,16 +10152,16 @@
         <v>20</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AI6" s="8" t="s">
         <v>56</v>
@@ -10289,10 +10283,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>49</v>
@@ -10301,7 +10295,7 @@
         <v>125</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>6</v>
@@ -10340,7 +10334,7 @@
         <v>121</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>6</v>
@@ -10376,16 +10370,16 @@
         <v>20</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AI7" s="8" t="s">
         <v>56</v>
@@ -10507,10 +10501,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>49</v>
@@ -10519,7 +10513,7 @@
         <v>125</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>13</v>
@@ -10558,7 +10552,7 @@
         <v>121</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>6</v>
@@ -10594,16 +10588,16 @@
         <v>20</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AI8" s="8" t="s">
         <v>56</v>
@@ -10795,10 +10789,10 @@
   <sheetData>
     <row r="1" spans="1:73" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -11019,10 +11013,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>24</v>
@@ -11031,7 +11025,7 @@
         <v>123</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>124</v>
@@ -11073,7 +11067,7 @@
         <v>121</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>6</v>
@@ -11097,10 +11091,10 @@
         <v>13</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>13</v>
@@ -11109,25 +11103,25 @@
         <v>20</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AJ2" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>241</v>
       </c>
       <c r="AM2" s="8" t="s">
         <v>6</v>
@@ -11240,10 +11234,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>24</v>
@@ -11252,7 +11246,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>124</v>
@@ -11294,7 +11288,7 @@
         <v>121</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>6</v>
@@ -11318,10 +11312,10 @@
         <v>13</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AD3" s="5" t="s">
         <v>13</v>
@@ -11330,16 +11324,16 @@
         <v>20</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG3" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AJ3" s="8" t="s">
         <v>56</v>
@@ -11348,7 +11342,7 @@
         <v>56</v>
       </c>
       <c r="AL3" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AM3" s="8" t="s">
         <v>60</v>
@@ -11444,10 +11438,10 @@
         <v>112</v>
       </c>
       <c r="BR3" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BS3" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BT3" s="1" t="s">
         <v>119</v>
@@ -11461,10 +11455,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>24</v>
@@ -11473,7 +11467,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>124</v>
@@ -11515,7 +11509,7 @@
         <v>121</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>6</v>
@@ -11539,10 +11533,10 @@
         <v>13</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AD4" s="5" t="s">
         <v>13</v>
@@ -11551,16 +11545,16 @@
         <v>20</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG4" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AJ4" s="8" t="s">
         <v>56</v>
@@ -11569,7 +11563,7 @@
         <v>56</v>
       </c>
       <c r="AL4" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM4" s="8" t="s">
         <v>6</v>
@@ -11665,10 +11659,10 @@
         <v>112</v>
       </c>
       <c r="BR4" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BS4" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BT4" s="1" t="s">
         <v>119</v>
@@ -11682,10 +11676,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>24</v>
@@ -11694,7 +11688,7 @@
         <v>123</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>124</v>
@@ -11736,7 +11730,7 @@
         <v>121</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>6</v>
@@ -11760,10 +11754,10 @@
         <v>13</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AD5" s="5" t="s">
         <v>13</v>
@@ -11772,16 +11766,16 @@
         <v>20</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG5" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ5" s="8" t="s">
         <v>56</v>
@@ -11790,7 +11784,7 @@
         <v>56</v>
       </c>
       <c r="AL5" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AM5" s="8" t="s">
         <v>60</v>
@@ -11886,10 +11880,10 @@
         <v>112</v>
       </c>
       <c r="BR5" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BS5" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BT5" s="1" t="s">
         <v>119</v>
@@ -11903,10 +11897,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>24</v>
@@ -11915,7 +11909,7 @@
         <v>123</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>124</v>
@@ -11957,7 +11951,7 @@
         <v>121</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>6</v>
@@ -11981,10 +11975,10 @@
         <v>13</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AD6" s="5" t="s">
         <v>13</v>
@@ -11993,16 +11987,16 @@
         <v>20</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG6" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ6" s="8" t="s">
         <v>56</v>
@@ -12011,7 +12005,7 @@
         <v>56</v>
       </c>
       <c r="AL6" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM6" s="8" t="s">
         <v>6</v>
@@ -12035,7 +12029,7 @@
         <v>13</v>
       </c>
       <c r="AT6" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AU6" s="8" t="s">
         <v>48</v>
@@ -12107,10 +12101,10 @@
         <v>112</v>
       </c>
       <c r="BR6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BS6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BT6" s="1" t="s">
         <v>119</v>
@@ -12124,10 +12118,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>24</v>
@@ -12136,7 +12130,7 @@
         <v>123</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>124</v>
@@ -12178,7 +12172,7 @@
         <v>121</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>6</v>
@@ -12202,10 +12196,10 @@
         <v>13</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AD7" s="5" t="s">
         <v>13</v>
@@ -12214,16 +12208,16 @@
         <v>20</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG7" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AJ7" s="8" t="s">
         <v>56</v>
@@ -12232,7 +12226,7 @@
         <v>56</v>
       </c>
       <c r="AL7" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AM7" s="8" t="s">
         <v>6</v>
@@ -12328,10 +12322,10 @@
         <v>112</v>
       </c>
       <c r="BR7" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BS7" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BT7" s="1" t="s">
         <v>119</v>
@@ -12345,10 +12339,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>24</v>
@@ -12357,7 +12351,7 @@
         <v>123</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>124</v>
@@ -12399,7 +12393,7 @@
         <v>121</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>6</v>
@@ -12423,10 +12417,10 @@
         <v>13</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AD8" s="5" t="s">
         <v>13</v>
@@ -12435,16 +12429,16 @@
         <v>20</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG8" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AJ8" s="8" t="s">
         <v>56</v>
@@ -12453,7 +12447,7 @@
         <v>56</v>
       </c>
       <c r="AL8" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AM8" s="8" t="s">
         <v>60</v>
@@ -12549,10 +12543,10 @@
         <v>112</v>
       </c>
       <c r="BR8" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BS8" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BT8" s="1" t="s">
         <v>119</v>
@@ -12566,10 +12560,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>24</v>
@@ -12578,7 +12572,7 @@
         <v>123</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>124</v>
@@ -12620,7 +12614,7 @@
         <v>121</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>6</v>
@@ -12644,10 +12638,10 @@
         <v>13</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AD9" s="5" t="s">
         <v>13</v>
@@ -12656,16 +12650,16 @@
         <v>20</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG9" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AH9" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI9" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ9" s="8" t="s">
         <v>56</v>
@@ -12674,7 +12668,7 @@
         <v>56</v>
       </c>
       <c r="AL9" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM9" s="8" t="s">
         <v>6</v>
@@ -12698,7 +12692,7 @@
         <v>13</v>
       </c>
       <c r="AT9" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AU9" s="8" t="s">
         <v>48</v>
@@ -12770,10 +12764,10 @@
         <v>112</v>
       </c>
       <c r="BR9" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BS9" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BT9" s="1" t="s">
         <v>119</v>
@@ -12787,10 +12781,10 @@
         <v>60</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>24</v>
@@ -12799,7 +12793,7 @@
         <v>123</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>124</v>
@@ -12841,7 +12835,7 @@
         <v>121</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>6</v>
@@ -12865,10 +12859,10 @@
         <v>13</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AD10" s="5" t="s">
         <v>13</v>
@@ -12877,16 +12871,16 @@
         <v>20</v>
       </c>
       <c r="AF10" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG10" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AH10" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI10" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ10" s="8" t="s">
         <v>56</v>
@@ -12895,7 +12889,7 @@
         <v>56</v>
       </c>
       <c r="AL10" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AM10" s="8" t="s">
         <v>6</v>
@@ -12991,10 +12985,10 @@
         <v>112</v>
       </c>
       <c r="BR10" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BS10" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BT10" s="1" t="s">
         <v>119</v>
@@ -13006,29 +13000,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13068,10 +13039,10 @@
   <sheetData>
     <row r="1" spans="1:55" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -13238,10 +13209,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>103</v>
@@ -13250,7 +13221,7 @@
         <v>104</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -13265,7 +13236,7 @@
         <v>120</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>6</v>
@@ -13283,7 +13254,7 @@
         <v>6</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>13</v>
@@ -13298,19 +13269,19 @@
         <v>20</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>57</v>
@@ -13405,10 +13376,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>103</v>
@@ -13432,7 +13403,7 @@
         <v>120</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>6</v>
@@ -13450,7 +13421,7 @@
         <v>6</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>13</v>
@@ -13471,13 +13442,13 @@
         <v>22</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>57</v>
@@ -13572,10 +13543,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>103</v>
@@ -13584,7 +13555,7 @@
         <v>104</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -13599,7 +13570,7 @@
         <v>120</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>6</v>
@@ -13617,7 +13588,7 @@
         <v>6</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>13</v>
@@ -13632,19 +13603,19 @@
         <v>20</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>57</v>
@@ -13739,10 +13710,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>103</v>
@@ -13751,7 +13722,7 @@
         <v>104</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>13</v>
@@ -13766,7 +13737,7 @@
         <v>120</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>6</v>
@@ -13784,7 +13755,7 @@
         <v>6</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>13</v>
@@ -13799,19 +13770,19 @@
         <v>20</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>57</v>
@@ -13906,10 +13877,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>103</v>
@@ -13918,7 +13889,7 @@
         <v>104</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
@@ -13933,7 +13904,7 @@
         <v>120</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>6</v>
@@ -13951,7 +13922,7 @@
         <v>6</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>13</v>
@@ -13966,19 +13937,19 @@
         <v>20</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>57</v>
@@ -14070,13 +14041,13 @@
     </row>
     <row r="7" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>103</v>
@@ -14085,7 +14056,7 @@
         <v>104</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>13</v>
@@ -14100,7 +14071,7 @@
         <v>120</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>6</v>
@@ -14118,7 +14089,7 @@
         <v>6</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>13</v>
@@ -14133,19 +14104,19 @@
         <v>20</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>57</v>
@@ -14237,13 +14208,13 @@
     </row>
     <row r="8" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>103</v>
@@ -14252,7 +14223,7 @@
         <v>104</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>13</v>
@@ -14267,7 +14238,7 @@
         <v>120</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>6</v>
@@ -14285,7 +14256,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>13</v>
@@ -14300,19 +14271,19 @@
         <v>20</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>57</v>
@@ -14412,7 +14383,7 @@
   <dimension ref="A1:BC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14441,10 +14412,10 @@
   <sheetData>
     <row r="1" spans="1:55" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -14611,10 +14582,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>105</v>
@@ -14638,7 +14609,7 @@
         <v>120</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>13</v>
@@ -14668,25 +14639,25 @@
         <v>6</v>
       </c>
       <c r="U2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="X2" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z2" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="AA2" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AB2" s="8" t="s">
         <v>56</v>
@@ -14778,10 +14749,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>105</v>
@@ -14790,7 +14761,7 @@
         <v>106</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
@@ -14805,7 +14776,7 @@
         <v>120</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>6</v>
@@ -14823,7 +14794,7 @@
         <v>6</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>13</v>
@@ -14835,25 +14806,25 @@
         <v>13</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AB3" s="8" t="s">
         <v>56</v>
@@ -14942,13 +14913,13 @@
     </row>
     <row r="4" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>105</v>
@@ -14957,7 +14928,7 @@
         <v>106</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -14972,7 +14943,7 @@
         <v>120</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>6</v>
@@ -15002,25 +14973,25 @@
         <v>13</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AB4" s="8" t="s">
         <v>56</v>
@@ -15109,13 +15080,13 @@
     </row>
     <row r="5" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>105</v>
@@ -15124,7 +15095,7 @@
         <v>106</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>13</v>
@@ -15139,7 +15110,7 @@
         <v>120</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>6</v>
@@ -15169,25 +15140,25 @@
         <v>13</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="V5" s="5" t="s">
         <v>94</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AB5" s="8" t="s">
         <v>56</v>
@@ -15279,10 +15250,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>105</v>
@@ -15291,7 +15262,7 @@
         <v>106</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
@@ -15306,7 +15277,7 @@
         <v>120</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>6</v>
@@ -15336,25 +15307,25 @@
         <v>13</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AB6" s="8" t="s">
         <v>56</v>
@@ -15446,10 +15417,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>105</v>
@@ -15458,7 +15429,7 @@
         <v>106</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>13</v>
@@ -15473,7 +15444,7 @@
         <v>120</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>6</v>
@@ -15503,25 +15474,25 @@
         <v>13</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AB7" s="8" t="s">
         <v>56</v>
@@ -15613,10 +15584,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>105</v>
@@ -15625,7 +15596,7 @@
         <v>106</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>13</v>
@@ -15640,7 +15611,7 @@
         <v>120</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>6</v>
@@ -15670,25 +15641,25 @@
         <v>13</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AB8" s="8" t="s">
         <v>56</v>
@@ -15780,10 +15751,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>105</v>
@@ -15792,7 +15763,7 @@
         <v>106</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>13</v>
@@ -15807,7 +15778,7 @@
         <v>120</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>6</v>
@@ -15837,25 +15808,25 @@
         <v>13</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AB9" s="8" t="s">
         <v>56</v>
@@ -15947,10 +15918,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>105</v>
@@ -15959,7 +15930,7 @@
         <v>106</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>13</v>
@@ -15974,7 +15945,7 @@
         <v>120</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>6</v>
@@ -16004,25 +15975,25 @@
         <v>13</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>129</v>
       </c>
       <c r="W10" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y10" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="X10" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="Z10" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AA10" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AB10" s="8" t="s">
         <v>56</v>
@@ -16120,7 +16091,7 @@
   <dimension ref="A1:BC9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16148,10 +16119,10 @@
   <sheetData>
     <row r="1" spans="1:55" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -16318,10 +16289,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>107</v>
@@ -16330,7 +16301,7 @@
         <v>108</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -16345,7 +16316,7 @@
         <v>120</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>6</v>
@@ -16363,7 +16334,7 @@
         <v>6</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>13</v>
@@ -16378,22 +16349,22 @@
         <v>20</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AB2" s="8" t="s">
         <v>56</v>
@@ -16482,13 +16453,13 @@
     </row>
     <row r="3" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>107</v>
@@ -16497,7 +16468,7 @@
         <v>108</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
@@ -16512,7 +16483,7 @@
         <v>120</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>6</v>
@@ -16530,7 +16501,7 @@
         <v>6</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>13</v>
@@ -16551,16 +16522,16 @@
         <v>22</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AB3" s="8" t="s">
         <v>56</v>
@@ -16649,13 +16620,13 @@
     </row>
     <row r="4" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>107</v>
@@ -16664,7 +16635,7 @@
         <v>108</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -16679,7 +16650,7 @@
         <v>120</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>6</v>
@@ -16697,7 +16668,7 @@
         <v>6</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>13</v>
@@ -16712,22 +16683,22 @@
         <v>20</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AB4" s="8" t="s">
         <v>56</v>
@@ -16819,10 +16790,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>107</v>
@@ -16831,7 +16802,7 @@
         <v>108</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>13</v>
@@ -16846,7 +16817,7 @@
         <v>120</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>6</v>
@@ -16864,7 +16835,7 @@
         <v>6</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>13</v>
@@ -16879,22 +16850,22 @@
         <v>20</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AB5" s="8" t="s">
         <v>56</v>
@@ -16986,10 +16957,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>107</v>
@@ -16998,7 +16969,7 @@
         <v>108</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
@@ -17013,7 +16984,7 @@
         <v>120</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>6</v>
@@ -17031,7 +17002,7 @@
         <v>6</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>13</v>
@@ -17046,22 +17017,22 @@
         <v>20</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AB6" s="8" t="s">
         <v>56</v>
@@ -17153,10 +17124,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>107</v>
@@ -17165,7 +17136,7 @@
         <v>108</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>13</v>
@@ -17180,7 +17151,7 @@
         <v>120</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>6</v>
@@ -17198,7 +17169,7 @@
         <v>6</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>13</v>
@@ -17213,22 +17184,22 @@
         <v>20</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AB7" s="8" t="s">
         <v>56</v>
@@ -17320,10 +17291,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>107</v>
@@ -17332,7 +17303,7 @@
         <v>108</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>13</v>
@@ -17347,7 +17318,7 @@
         <v>120</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>6</v>
@@ -17365,7 +17336,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>13</v>
@@ -17380,22 +17351,22 @@
         <v>20</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AB8" s="8" t="s">
         <v>56</v>
@@ -17487,10 +17458,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>107</v>
@@ -17499,7 +17470,7 @@
         <v>108</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>13</v>
@@ -17514,7 +17485,7 @@
         <v>120</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>6</v>
@@ -17532,7 +17503,7 @@
         <v>6</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R9" s="5" t="s">
         <v>13</v>
@@ -17547,22 +17518,22 @@
         <v>20</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AB9" s="8" t="s">
         <v>56</v>
@@ -17659,7 +17630,7 @@
   <dimension ref="A1:BT7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17710,10 +17681,10 @@
   <sheetData>
     <row r="1" spans="1:72" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -17931,10 +17902,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>55</v>
@@ -17943,7 +17914,7 @@
         <v>127</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -18009,10 +17980,10 @@
         <v>6</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>6</v>
@@ -18024,16 +17995,16 @@
         <v>20</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AK2" s="8" t="s">
         <v>56</v>
@@ -18149,10 +18120,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>55</v>
@@ -18161,7 +18132,7 @@
         <v>127</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>124</v>
@@ -18227,10 +18198,10 @@
         <v>6</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AD3" s="5" t="s">
         <v>6</v>
@@ -18242,16 +18213,16 @@
         <v>20</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AJ3" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AK3" s="8" t="s">
         <v>56</v>
@@ -18364,13 +18335,13 @@
     </row>
     <row r="4" spans="1:72" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>55</v>
@@ -18379,7 +18350,7 @@
         <v>127</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -18445,10 +18416,10 @@
         <v>6</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AD4" s="5" t="s">
         <v>6</v>
@@ -18463,13 +18434,13 @@
         <v>21</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK4" s="8" t="s">
         <v>56</v>
@@ -18582,13 +18553,13 @@
     </row>
     <row r="5" spans="1:72" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>55</v>
@@ -18597,7 +18568,7 @@
         <v>127</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>124</v>
@@ -18663,10 +18634,10 @@
         <v>6</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AD5" s="5" t="s">
         <v>6</v>
@@ -18678,16 +18649,16 @@
         <v>20</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AJ5" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AK5" s="8" t="s">
         <v>56</v>
@@ -18803,10 +18774,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>55</v>
@@ -18815,7 +18786,7 @@
         <v>127</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
@@ -18881,10 +18852,10 @@
         <v>6</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AD6" s="5" t="s">
         <v>6</v>
@@ -18899,13 +18870,13 @@
         <v>143</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AJ6" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AK6" s="8" t="s">
         <v>56</v>
@@ -19021,10 +18992,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>55</v>
@@ -19033,7 +19004,7 @@
         <v>127</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>124</v>
@@ -19099,10 +19070,10 @@
         <v>6</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AD7" s="5" t="s">
         <v>6</v>
@@ -19114,16 +19085,16 @@
         <v>20</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AJ7" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AK7" s="8" t="s">
         <v>56</v>
@@ -19245,7 +19216,7 @@
   <dimension ref="A1:BU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19291,10 +19262,10 @@
   <sheetData>
     <row r="1" spans="1:73" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -19515,10 +19486,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>52</v>
@@ -19527,7 +19498,7 @@
         <v>96</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>6</v>
@@ -19611,13 +19582,13 @@
         <v>124</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AK2" s="8" t="s">
         <v>56</v>
@@ -19733,13 +19704,13 @@
     </row>
     <row r="3" spans="1:73" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>52</v>
@@ -19748,7 +19719,7 @@
         <v>96</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
@@ -19832,13 +19803,13 @@
         <v>124</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AJ3" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AK3" s="8" t="s">
         <v>56</v>
@@ -19954,13 +19925,13 @@
     </row>
     <row r="4" spans="1:73" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>52</v>
@@ -19969,7 +19940,7 @@
         <v>96</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>6</v>
@@ -20053,13 +20024,13 @@
         <v>124</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AK4" s="8" t="s">
         <v>56</v>
@@ -20178,10 +20149,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>52</v>
@@ -20190,7 +20161,7 @@
         <v>96</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>13</v>
@@ -20274,13 +20245,13 @@
         <v>124</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AJ5" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AK5" s="8" t="s">
         <v>56</v>
@@ -20399,10 +20370,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>52</v>
@@ -20411,7 +20382,7 @@
         <v>96</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>6</v>
@@ -20495,13 +20466,13 @@
         <v>124</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AJ6" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AK6" s="8" t="s">
         <v>56</v>
@@ -20620,10 +20591,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>52</v>
@@ -20632,7 +20603,7 @@
         <v>96</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>6</v>
@@ -20716,13 +20687,13 @@
         <v>124</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AJ7" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AK7" s="8" t="s">
         <v>56</v>
@@ -20847,7 +20818,7 @@
   <dimension ref="A1:BS7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20897,10 +20868,10 @@
   <sheetData>
     <row r="1" spans="1:71" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -21115,10 +21086,10 @@
         <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>130</v>
@@ -21127,7 +21098,7 @@
         <v>54</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>6</v>
@@ -21208,13 +21179,13 @@
         <v>124</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AI2" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AJ2" s="11" t="s">
         <v>56</v>
@@ -21327,13 +21298,13 @@
     </row>
     <row r="3" spans="1:71" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>130</v>
@@ -21342,7 +21313,7 @@
         <v>54</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
@@ -21423,13 +21394,13 @@
         <v>124</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AI3" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AJ3" s="11" t="s">
         <v>56</v>
@@ -21542,13 +21513,13 @@
     </row>
     <row r="4" spans="1:71" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>130</v>
@@ -21557,7 +21528,7 @@
         <v>54</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -21638,13 +21609,13 @@
         <v>124</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AI4" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AJ4" s="11" t="s">
         <v>56</v>
@@ -21760,10 +21731,10 @@
         <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>130</v>
@@ -21772,7 +21743,7 @@
         <v>54</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
@@ -21853,13 +21824,13 @@
         <v>124</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AI5" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AJ5" s="11" t="s">
         <v>56</v>
@@ -21975,10 +21946,10 @@
         <v>60</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>130</v>
@@ -21987,7 +21958,7 @@
         <v>54</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
@@ -22068,13 +22039,13 @@
         <v>124</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AI6" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AJ6" s="11" t="s">
         <v>56</v>
@@ -22190,10 +22161,10 @@
         <v>60</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>130</v>
@@ -22202,7 +22173,7 @@
         <v>54</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>6</v>
@@ -22283,13 +22254,13 @@
         <v>124</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AI7" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AJ7" s="11" t="s">
         <v>56</v>
@@ -22411,7 +22382,7 @@
   <dimension ref="A1:BC8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22429,10 +22400,10 @@
   <sheetData>
     <row r="1" spans="1:55" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -22599,10 +22570,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>99</v>
@@ -22611,7 +22582,7 @@
         <v>122</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -22626,7 +22597,7 @@
         <v>120</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>6</v>
@@ -22638,13 +22609,13 @@
         <v>13</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>60</v>
@@ -22659,19 +22630,19 @@
         <v>20</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>56</v>
@@ -22763,13 +22734,13 @@
     </row>
     <row r="3" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>99</v>
@@ -22778,7 +22749,7 @@
         <v>122</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
@@ -22793,7 +22764,7 @@
         <v>120</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>6</v>
@@ -22805,13 +22776,13 @@
         <v>13</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>60</v>
@@ -22826,19 +22797,19 @@
         <v>20</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>56</v>
@@ -22930,13 +22901,13 @@
     </row>
     <row r="4" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>99</v>
@@ -22945,7 +22916,7 @@
         <v>122</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -22960,7 +22931,7 @@
         <v>120</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>6</v>
@@ -22972,13 +22943,13 @@
         <v>13</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>60</v>
@@ -22993,19 +22964,19 @@
         <v>20</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>56</v>
@@ -23100,10 +23071,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>99</v>
@@ -23112,7 +23083,7 @@
         <v>122</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
@@ -23127,7 +23098,7 @@
         <v>120</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>6</v>
@@ -23139,13 +23110,13 @@
         <v>13</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>60</v>
@@ -23160,19 +23131,19 @@
         <v>20</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>56</v>
@@ -23267,10 +23238,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>99</v>
@@ -23279,7 +23250,7 @@
         <v>122</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
@@ -23294,7 +23265,7 @@
         <v>120</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>6</v>
@@ -23312,7 +23283,7 @@
         <v>13</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>60</v>
@@ -23327,19 +23298,19 @@
         <v>20</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>56</v>
@@ -23434,10 +23405,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>99</v>
@@ -23446,7 +23417,7 @@
         <v>122</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>13</v>
@@ -23461,7 +23432,7 @@
         <v>120</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>6</v>
@@ -23473,13 +23444,13 @@
         <v>13</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>60</v>
@@ -23494,19 +23465,19 @@
         <v>20</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>56</v>
@@ -23601,10 +23572,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>99</v>
@@ -23613,7 +23584,7 @@
         <v>122</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>6</v>
@@ -23628,7 +23599,7 @@
         <v>120</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>6</v>
@@ -23640,13 +23611,13 @@
         <v>13</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>60</v>
@@ -23661,19 +23632,19 @@
         <v>20</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>56</v>
@@ -23774,7 +23745,7 @@
   <dimension ref="A1:BC8"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23812,10 +23783,10 @@
   <sheetData>
     <row r="1" spans="1:55" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -23982,10 +23953,10 @@
         <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>51</v>
@@ -23994,7 +23965,7 @@
         <v>53</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -24009,7 +23980,7 @@
         <v>120</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>6</v>
@@ -24045,16 +24016,16 @@
         <v>143</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AA2" s="11" t="s">
         <v>57</v>
@@ -24146,13 +24117,13 @@
     </row>
     <row r="3" spans="1:55" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>51</v>
@@ -24161,7 +24132,7 @@
         <v>53</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
@@ -24176,7 +24147,7 @@
         <v>120</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>6</v>
@@ -24209,19 +24180,19 @@
         <v>20</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AA3" s="11" t="s">
         <v>57</v>
@@ -24299,7 +24270,7 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BA3" s="3" t="s">
         <v>115</v>
@@ -24313,13 +24284,13 @@
     </row>
     <row r="4" spans="1:55" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>51</v>
@@ -24328,7 +24299,7 @@
         <v>53</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -24343,7 +24314,7 @@
         <v>120</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>6</v>
@@ -24376,19 +24347,19 @@
         <v>20</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AA4" s="11" t="s">
         <v>57</v>
@@ -24466,7 +24437,7 @@
         <v>112</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BA4" s="3" t="s">
         <v>115</v>
@@ -24483,10 +24454,10 @@
         <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>51</v>
@@ -24495,7 +24466,7 @@
         <v>53</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>13</v>
@@ -24510,7 +24481,7 @@
         <v>120</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>6</v>
@@ -24543,19 +24514,19 @@
         <v>20</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AA5" s="11" t="s">
         <v>57</v>
@@ -24633,7 +24604,7 @@
         <v>112</v>
       </c>
       <c r="AZ5" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BA5" s="3" t="s">
         <v>115</v>
@@ -24650,10 +24621,10 @@
         <v>60</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>51</v>
@@ -24662,7 +24633,7 @@
         <v>53</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>6</v>
@@ -24677,7 +24648,7 @@
         <v>120</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>6</v>
@@ -24710,19 +24681,19 @@
         <v>20</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AA6" s="11" t="s">
         <v>57</v>
@@ -24800,7 +24771,7 @@
         <v>112</v>
       </c>
       <c r="AZ6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BA6" s="3" t="s">
         <v>115</v>
@@ -24817,10 +24788,10 @@
         <v>60</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>51</v>
@@ -24829,7 +24800,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>13</v>
@@ -24844,7 +24815,7 @@
         <v>120</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>6</v>
@@ -24877,19 +24848,19 @@
         <v>20</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AA7" s="11" t="s">
         <v>57</v>
@@ -24967,7 +24938,7 @@
         <v>112</v>
       </c>
       <c r="AZ7" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BA7" s="3" t="s">
         <v>115</v>
@@ -24984,10 +24955,10 @@
         <v>60</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>51</v>
@@ -24996,7 +24967,7 @@
         <v>53</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>13</v>
@@ -25011,7 +24982,7 @@
         <v>120</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>6</v>
@@ -25044,19 +25015,19 @@
         <v>20</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AA8" s="11" t="s">
         <v>57</v>
@@ -25134,7 +25105,7 @@
         <v>112</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BA8" s="3" t="s">
         <v>115</v>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCN_CreateAccessCoreDevice_TestData.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCN_CreateAccessCoreDevice_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="LoadBalancer" sheetId="15" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="MiniDSLAM" sheetId="14" r:id="rId12"/>
     <sheet name="AccessSwitch" sheetId="5" r:id="rId13"/>
     <sheet name="AccessRouter" sheetId="4" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1870,9 +1871,6 @@
     <t>DAS-DE04</t>
   </si>
   <si>
-    <t>DAS-DE05</t>
-  </si>
-  <si>
     <t>Jay06</t>
   </si>
   <si>
@@ -1970,6 +1968,9 @@
   </si>
   <si>
     <t>M07</t>
+  </si>
+  <si>
+    <t>DAS_DE05</t>
   </si>
 </sst>
 </file>
@@ -2347,8 +2348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3118,7 +3119,7 @@
         <v>399</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AB5" s="8" t="s">
         <v>56</v>
@@ -3285,7 +3286,7 @@
         <v>400</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AB6" s="8" t="s">
         <v>56</v>
@@ -3452,7 +3453,7 @@
         <v>401</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AB7" s="8" t="s">
         <v>56</v>
@@ -3619,7 +3620,7 @@
         <v>402</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AB8" s="8" t="s">
         <v>56</v>
@@ -3708,7 +3709,7 @@
     </row>
     <row r="9" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>168</v>
@@ -3786,7 +3787,7 @@
         <v>400</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AB9" s="8" t="s">
         <v>56</v>
@@ -3884,7 +3885,7 @@
   <dimension ref="A1:BT6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5017,13 +5018,13 @@
     </row>
     <row r="6" spans="1:72" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>50</v>
@@ -5071,7 +5072,7 @@
         <v>121</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>6</v>
@@ -5113,10 +5114,10 @@
         <v>6</v>
       </c>
       <c r="AG6" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="AH6" s="5" t="s">
         <v>628</v>
-      </c>
-      <c r="AH6" s="5" t="s">
-        <v>629</v>
       </c>
       <c r="AI6" s="8" t="s">
         <v>57</v>
@@ -5244,7 +5245,7 @@
   <dimension ref="A1:BC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5951,7 +5952,7 @@
     </row>
     <row r="5" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>168</v>
@@ -6125,8 +6126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6384,7 +6385,7 @@
         <v>20</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>445</v>
@@ -6551,7 +6552,7 @@
         <v>20</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>446</v>
@@ -6718,7 +6719,7 @@
         <v>20</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>447</v>
@@ -6885,7 +6886,7 @@
         <v>20</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>448</v>
@@ -6997,8 +6998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7689,7 +7690,7 @@
     </row>
     <row r="4" spans="1:72" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>168</v>
@@ -7907,13 +7908,13 @@
     </row>
     <row r="5" spans="1:72" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
@@ -7961,7 +7962,7 @@
         <v>121</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>6</v>
@@ -8003,10 +8004,10 @@
         <v>6</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AI5" s="8" t="s">
         <v>56</v>
@@ -8133,8 +8134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9966,7 +9967,7 @@
     </row>
     <row r="9" spans="1:73" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>168</v>
@@ -10188,6 +10189,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11396,7 +11409,7 @@
     </row>
     <row r="8" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>168</v>
@@ -11570,7 +11583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13268,7 +13283,7 @@
     </row>
     <row r="11" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>168</v>
@@ -13443,8 +13458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13708,13 +13723,13 @@
         <v>22</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AA2" s="7" t="s">
         <v>610</v>
@@ -13875,13 +13890,13 @@
         <v>22</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>611</v>
@@ -13973,7 +13988,7 @@
     </row>
     <row r="4" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>168</v>
@@ -14042,16 +14057,16 @@
         <v>22</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>612</v>
+        <v>645</v>
       </c>
       <c r="AB4" s="8" t="s">
         <v>56</v>
@@ -15289,7 +15304,7 @@
     </row>
     <row r="6" spans="1:72" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>168</v>
@@ -16446,7 +16461,7 @@
     </row>
     <row r="5" spans="1:73" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>168</v>
@@ -17586,7 +17601,7 @@
     </row>
     <row r="5" spans="1:71" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>168</v>
@@ -17809,7 +17824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18496,13 +18513,13 @@
     </row>
     <row r="5" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>99</v>
@@ -18526,7 +18543,7 @@
         <v>120</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>6</v>
@@ -18562,16 +18579,16 @@
         <v>158</v>
       </c>
       <c r="W5" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="X5" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Y5" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Z5" s="5" t="s">
         <v>639</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>640</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>56</v>
@@ -18672,7 +18689,7 @@
   <dimension ref="A1:BC5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19211,7 +19228,7 @@
     </row>
     <row r="4" spans="1:55" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>168</v>
@@ -19283,10 +19300,10 @@
         <v>284</v>
       </c>
       <c r="Y4" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="Z4" s="5" t="s">
         <v>644</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>645</v>
       </c>
       <c r="AA4" s="11" t="s">
         <v>57</v>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCN_CreateAccessCoreDevice_TestData.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCN_CreateAccessCoreDevice_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="LoadBalancer" sheetId="15" r:id="rId1"/>
@@ -6998,8 +6998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT5"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL4" sqref="AL4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8134,8 +8134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9967,7 +9967,7 @@
     </row>
     <row r="9" spans="1:73" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>168</v>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCN_CreateAccessCoreDevice_TestData.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCN_CreateAccessCoreDevice_TestData.xlsx
@@ -21,7 +21,6 @@
     <sheet name="MiniDSLAM" sheetId="14" r:id="rId12"/>
     <sheet name="AccessSwitch" sheetId="5" r:id="rId13"/>
     <sheet name="AccessRouter" sheetId="4" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5461" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5387" uniqueCount="579">
   <si>
     <t>Name</t>
   </si>
@@ -527,18 +526,12 @@
     <t>KA47</t>
   </si>
   <si>
-    <t>AR11</t>
-  </si>
-  <si>
     <t>ARS11</t>
   </si>
   <si>
     <t>Run</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>APT_NonVoiceService</t>
   </si>
   <si>
@@ -566,189 +559,15 @@
     <t>CR_RO_12</t>
   </si>
   <si>
-    <t>accessRouteest546</t>
-  </si>
-  <si>
-    <t>accessRouteest547</t>
-  </si>
-  <si>
-    <t>accessRouteest548</t>
-  </si>
-  <si>
-    <t>accessRouteest549</t>
-  </si>
-  <si>
-    <t>accessRouteest550</t>
-  </si>
-  <si>
-    <t>accessRouteest551</t>
-  </si>
-  <si>
-    <t>accessRouteest552</t>
-  </si>
-  <si>
-    <t>accessRouteest553</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>152</t>
   </si>
   <si>
-    <t>12.25.4.76</t>
-  </si>
-  <si>
-    <t>12.25.4.77</t>
-  </si>
-  <si>
-    <t>12.25.4.78</t>
-  </si>
-  <si>
-    <t>12.25.4.79</t>
-  </si>
-  <si>
-    <t>12.25.4.80</t>
-  </si>
-  <si>
-    <t>12.25.4.81</t>
-  </si>
-  <si>
-    <t>12.25.4.84</t>
-  </si>
-  <si>
-    <t>oz1</t>
-  </si>
-  <si>
-    <t>oz2</t>
-  </si>
-  <si>
-    <t>oz3</t>
-  </si>
-  <si>
-    <t>oz4</t>
-  </si>
-  <si>
-    <t>oz5</t>
-  </si>
-  <si>
-    <t>oz6</t>
-  </si>
-  <si>
-    <t>oz7</t>
-  </si>
-  <si>
     <t>oz8</t>
   </si>
   <si>
-    <t>AR12</t>
-  </si>
-  <si>
-    <t>AR13</t>
-  </si>
-  <si>
-    <t>AR14</t>
-  </si>
-  <si>
-    <t>AR15</t>
-  </si>
-  <si>
-    <t>AR16</t>
-  </si>
-  <si>
-    <t>AR17</t>
-  </si>
-  <si>
     <t>AR18</t>
   </si>
   <si>
-    <t>ARS12</t>
-  </si>
-  <si>
-    <t>ARS13</t>
-  </si>
-  <si>
-    <t>ARS14</t>
-  </si>
-  <si>
-    <t>ARS15</t>
-  </si>
-  <si>
-    <t>ARS16</t>
-  </si>
-  <si>
-    <t>ARS17</t>
-  </si>
-  <si>
-    <t>ARS18</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>Ed_AC8</t>
-  </si>
-  <si>
-    <t>rou1</t>
-  </si>
-  <si>
-    <t>rou2</t>
-  </si>
-  <si>
-    <t>rou3</t>
-  </si>
-  <si>
-    <t>rou4</t>
-  </si>
-  <si>
-    <t>rou5</t>
-  </si>
-  <si>
-    <t>rou6</t>
-  </si>
-  <si>
-    <t>rou7</t>
-  </si>
-  <si>
     <t>rou8</t>
   </si>
   <si>
@@ -761,78 +580,15 @@
     <t>10.83.99.4</t>
   </si>
   <si>
-    <t>10.83.99.5</t>
-  </si>
-  <si>
-    <t>10.83.99.6</t>
-  </si>
-  <si>
-    <t>10.83.99.7</t>
-  </si>
-  <si>
     <t>10.83.99.8</t>
   </si>
   <si>
-    <t>AcesSwitch_12</t>
-  </si>
-  <si>
-    <t>AcesSwitch_13</t>
-  </si>
-  <si>
-    <t>AcesSwitch_14</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
     <t>246</t>
   </si>
   <si>
-    <t>16.92.11.27</t>
-  </si>
-  <si>
-    <t>16.92.11.28</t>
-  </si>
-  <si>
-    <t>16.92.11.29</t>
-  </si>
-  <si>
-    <t>A707</t>
-  </si>
-  <si>
-    <t>A708</t>
-  </si>
-  <si>
-    <t>A709</t>
-  </si>
-  <si>
     <t>A710</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>Pre3</t>
-  </si>
-  <si>
-    <t>Pre4</t>
-  </si>
-  <si>
-    <t>Pre5</t>
-  </si>
-  <si>
     <t>DCN_Dev04</t>
   </si>
   <si>
@@ -851,9 +607,6 @@
     <t>1567</t>
   </si>
   <si>
-    <t>1568</t>
-  </si>
-  <si>
     <t>15.18.26.15</t>
   </si>
   <si>
@@ -911,18 +664,12 @@
     <t>M04</t>
   </si>
   <si>
-    <t>M06</t>
-  </si>
-  <si>
     <t>dp2</t>
   </si>
   <si>
     <t>dp3</t>
   </si>
   <si>
-    <t>dp5</t>
-  </si>
-  <si>
     <t>DS_DE_015</t>
   </si>
   <si>
@@ -1004,9 +751,6 @@
     <t>DS3</t>
   </si>
   <si>
-    <t>DS4</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -1016,9 +760,6 @@
     <t>D3</t>
   </si>
   <si>
-    <t>D4</t>
-  </si>
-  <si>
     <t>editDSLam1</t>
   </si>
   <si>
@@ -1028,9 +769,6 @@
     <t>editDSLam3</t>
   </si>
   <si>
-    <t>editDSLam4</t>
-  </si>
-  <si>
     <t>FR_DE_04</t>
   </si>
   <si>
@@ -1379,9 +1117,6 @@
     <t>md4</t>
   </si>
   <si>
-    <t>md5</t>
-  </si>
-  <si>
     <t>071</t>
   </si>
   <si>
@@ -1391,9 +1126,6 @@
     <t>073</t>
   </si>
   <si>
-    <t>074</t>
-  </si>
-  <si>
     <t>MDS1</t>
   </si>
   <si>
@@ -1403,9 +1135,6 @@
     <t>MDS3</t>
   </si>
   <si>
-    <t>MDS4</t>
-  </si>
-  <si>
     <t>ML1</t>
   </si>
   <si>
@@ -1415,9 +1144,6 @@
     <t>ML3</t>
   </si>
   <si>
-    <t>ML4</t>
-  </si>
-  <si>
     <t>Pr_de04</t>
   </si>
   <si>
@@ -1916,12 +1642,6 @@
     <t>16.16.00.39</t>
   </si>
   <si>
-    <t>CPr4</t>
-  </si>
-  <si>
-    <t>CR4</t>
-  </si>
-  <si>
     <t>K17</t>
   </si>
   <si>
@@ -1931,9 +1651,6 @@
     <t>K19</t>
   </si>
   <si>
-    <t>K20</t>
-  </si>
-  <si>
     <t>Pre7</t>
   </si>
   <si>
@@ -1949,18 +1666,6 @@
     <t>JF026</t>
   </si>
   <si>
-    <t>PRE5</t>
-  </si>
-  <si>
-    <t>JP5</t>
-  </si>
-  <si>
-    <t>AcesSwitch_17</t>
-  </si>
-  <si>
-    <t>16.92.11.32</t>
-  </si>
-  <si>
     <t>B7</t>
   </si>
   <si>
@@ -1971,6 +1676,99 @@
   </si>
   <si>
     <t>DAS_DE05</t>
+  </si>
+  <si>
+    <t>url for the Product</t>
+  </si>
+  <si>
+    <t>DS5</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>ML5</t>
+  </si>
+  <si>
+    <t>MDS5</t>
+  </si>
+  <si>
+    <t>md6</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>K21</t>
+  </si>
+  <si>
+    <t>CR5</t>
+  </si>
+  <si>
+    <t>CPr5</t>
+  </si>
+  <si>
+    <t>1569</t>
+  </si>
+  <si>
+    <t>PRE6</t>
+  </si>
+  <si>
+    <t>JP6</t>
+  </si>
+  <si>
+    <t>accessRouteest557</t>
+  </si>
+  <si>
+    <t>ARS21</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>accessRouteest558</t>
+  </si>
+  <si>
+    <t>16.92.11.38</t>
+  </si>
+  <si>
+    <t>AcesSwitch_18</t>
+  </si>
+  <si>
+    <t>AcesSwitch_19</t>
+  </si>
+  <si>
+    <t>AcesSwitch_20</t>
+  </si>
+  <si>
+    <t>AcesSwitch_21</t>
+  </si>
+  <si>
+    <t>AcesSwitch_22</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>16.92.11.39</t>
+  </si>
+  <si>
+    <t>16.92.11.40</t>
+  </si>
+  <si>
+    <t>16.92.11.41</t>
+  </si>
+  <si>
+    <t>16.92.11.42</t>
   </si>
 </sst>
 </file>
@@ -2000,7 +1798,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2019,6 +1817,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2032,7 +1836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2066,6 +1870,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2349,7 +2154,7 @@
   <dimension ref="A1:BC9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,10 +2178,10 @@
   <sheetData>
     <row r="1" spans="1:55" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2543,10 +2348,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>376</v>
+        <v>289</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>101</v>
@@ -2570,7 +2375,7 @@
         <v>120</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>389</v>
+        <v>302</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>6</v>
@@ -2588,7 +2393,7 @@
         <v>60</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>13</v>
@@ -2612,10 +2417,10 @@
         <v>23</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>57</v>
@@ -2624,7 +2429,7 @@
         <v>56</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
       <c r="AD2" s="8" t="s">
         <v>6</v>
@@ -2710,10 +2515,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>377</v>
+        <v>290</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>101</v>
@@ -2722,7 +2527,7 @@
         <v>102</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>383</v>
+        <v>296</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
@@ -2737,7 +2542,7 @@
         <v>120</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>6</v>
@@ -2755,7 +2560,7 @@
         <v>60</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>13</v>
@@ -2779,10 +2584,10 @@
         <v>23</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>397</v>
+        <v>310</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>57</v>
@@ -2791,7 +2596,7 @@
         <v>56</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>411</v>
+        <v>324</v>
       </c>
       <c r="AD3" s="8" t="s">
         <v>6</v>
@@ -2877,10 +2682,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>378</v>
+        <v>291</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>101</v>
@@ -2889,7 +2694,7 @@
         <v>102</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>384</v>
+        <v>297</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -2904,7 +2709,7 @@
         <v>120</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>391</v>
+        <v>304</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>6</v>
@@ -2922,7 +2727,7 @@
         <v>60</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>13</v>
@@ -2946,10 +2751,10 @@
         <v>23</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>405</v>
+        <v>318</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>398</v>
+        <v>311</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>57</v>
@@ -2958,7 +2763,7 @@
         <v>56</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>412</v>
+        <v>325</v>
       </c>
       <c r="AD4" s="8" t="s">
         <v>6</v>
@@ -3044,10 +2849,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>379</v>
+        <v>292</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>101</v>
@@ -3056,7 +2861,7 @@
         <v>102</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>385</v>
+        <v>298</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
@@ -3071,7 +2876,7 @@
         <v>120</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>392</v>
+        <v>305</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>6</v>
@@ -3089,7 +2894,7 @@
         <v>60</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>13</v>
@@ -3113,19 +2918,19 @@
         <v>23</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>406</v>
+        <v>319</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>621</v>
+        <v>530</v>
       </c>
       <c r="AB5" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>413</v>
+        <v>326</v>
       </c>
       <c r="AD5" s="8" t="s">
         <v>6</v>
@@ -3211,10 +3016,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>380</v>
+        <v>293</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>101</v>
@@ -3223,7 +3028,7 @@
         <v>102</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
@@ -3238,7 +3043,7 @@
         <v>120</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>393</v>
+        <v>306</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>6</v>
@@ -3256,7 +3061,7 @@
         <v>60</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>13</v>
@@ -3280,19 +3085,19 @@
         <v>23</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>407</v>
+        <v>320</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>622</v>
+        <v>531</v>
       </c>
       <c r="AB6" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>414</v>
+        <v>327</v>
       </c>
       <c r="AD6" s="8" t="s">
         <v>6</v>
@@ -3378,10 +3183,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>381</v>
+        <v>294</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>101</v>
@@ -3390,7 +3195,7 @@
         <v>102</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>6</v>
@@ -3405,7 +3210,7 @@
         <v>120</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>394</v>
+        <v>307</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>6</v>
@@ -3423,7 +3228,7 @@
         <v>60</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>13</v>
@@ -3447,19 +3252,19 @@
         <v>23</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>623</v>
+        <v>532</v>
       </c>
       <c r="AB7" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>415</v>
+        <v>328</v>
       </c>
       <c r="AD7" s="8" t="s">
         <v>6</v>
@@ -3545,10 +3350,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>382</v>
+        <v>295</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>101</v>
@@ -3557,7 +3362,7 @@
         <v>102</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>388</v>
+        <v>301</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>13</v>
@@ -3572,7 +3377,7 @@
         <v>120</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>395</v>
+        <v>308</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>6</v>
@@ -3590,7 +3395,7 @@
         <v>60</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>13</v>
@@ -3614,19 +3419,19 @@
         <v>23</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>409</v>
+        <v>322</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>624</v>
+        <v>533</v>
       </c>
       <c r="AB8" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>416</v>
+        <v>329</v>
       </c>
       <c r="AD8" s="8" t="s">
         <v>6</v>
@@ -3712,10 +3517,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>380</v>
+        <v>293</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>101</v>
@@ -3724,7 +3529,7 @@
         <v>102</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>13</v>
@@ -3739,7 +3544,7 @@
         <v>120</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>393</v>
+        <v>306</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>6</v>
@@ -3757,7 +3562,7 @@
         <v>6</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R9" s="5" t="s">
         <v>13</v>
@@ -3781,19 +3586,19 @@
         <v>23</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>407</v>
+        <v>320</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>622</v>
+        <v>531</v>
       </c>
       <c r="AB9" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>414</v>
+        <v>327</v>
       </c>
       <c r="AD9" s="8" t="s">
         <v>6</v>
@@ -3926,12 +3731,12 @@
     <col min="73" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -4149,10 +3954,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>50</v>
@@ -4200,7 +4005,7 @@
         <v>121</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>6</v>
@@ -4212,7 +4017,7 @@
         <v>6</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>1</v>
@@ -4242,10 +4047,10 @@
         <v>6</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>57</v>
@@ -4367,10 +4172,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>50</v>
@@ -4418,7 +4223,7 @@
         <v>121</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>6</v>
@@ -4430,7 +4235,7 @@
         <v>6</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>1</v>
@@ -4460,10 +4265,10 @@
         <v>6</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AI3" s="8" t="s">
         <v>57</v>
@@ -4585,10 +4390,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>50</v>
@@ -4636,7 +4441,7 @@
         <v>121</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>6</v>
@@ -4648,7 +4453,7 @@
         <v>6</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X4" s="5" t="s">
         <v>1</v>
@@ -4678,10 +4483,10 @@
         <v>6</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AI4" s="8" t="s">
         <v>57</v>
@@ -4803,10 +4608,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>50</v>
@@ -4854,7 +4659,7 @@
         <v>121</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>6</v>
@@ -4866,7 +4671,7 @@
         <v>6</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X5" s="5" t="s">
         <v>1</v>
@@ -4896,10 +4701,10 @@
         <v>6</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AI5" s="8" t="s">
         <v>57</v>
@@ -5021,10 +4826,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>625</v>
+        <v>534</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>50</v>
@@ -5072,7 +4877,7 @@
         <v>121</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>626</v>
+        <v>535</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>6</v>
@@ -5084,7 +4889,7 @@
         <v>6</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>1</v>
@@ -5114,10 +4919,10 @@
         <v>6</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>627</v>
+        <v>557</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>628</v>
+        <v>556</v>
       </c>
       <c r="AI6" s="8" t="s">
         <v>57</v>
@@ -5284,10 +5089,10 @@
   <sheetData>
     <row r="1" spans="1:55" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -5454,10 +5259,10 @@
         <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>296</v>
+        <v>212</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>133</v>
@@ -5466,7 +5271,7 @@
         <v>132</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>300</v>
+        <v>216</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>6</v>
@@ -5481,7 +5286,7 @@
         <v>134</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>304</v>
+        <v>220</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>6</v>
@@ -5514,22 +5319,22 @@
         <v>20</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>308</v>
+        <v>224</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>312</v>
+        <v>228</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>129</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>320</v>
+        <v>236</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
       <c r="AB2" s="8" t="s">
         <v>56</v>
@@ -5621,10 +5426,10 @@
         <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>297</v>
+        <v>213</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>133</v>
@@ -5633,7 +5438,7 @@
         <v>132</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>301</v>
+        <v>217</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
@@ -5648,7 +5453,7 @@
         <v>134</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>6</v>
@@ -5681,22 +5486,22 @@
         <v>20</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>309</v>
+        <v>225</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>313</v>
+        <v>229</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>148</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>321</v>
+        <v>237</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>329</v>
+        <v>243</v>
       </c>
       <c r="AB3" s="8" t="s">
         <v>56</v>
@@ -5788,10 +5593,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>133</v>
@@ -5800,7 +5605,7 @@
         <v>132</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>6</v>
@@ -5815,7 +5620,7 @@
         <v>134</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>6</v>
@@ -5848,22 +5653,22 @@
         <v>20</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>310</v>
+        <v>226</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>147</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>315</v>
+        <v>231</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>322</v>
+        <v>238</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="AB4" s="8" t="s">
         <v>56</v>
@@ -5952,13 +5757,13 @@
     </row>
     <row r="5" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>299</v>
+        <v>215</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>133</v>
@@ -5967,7 +5772,7 @@
         <v>132</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
@@ -5982,7 +5787,7 @@
         <v>134</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>6</v>
@@ -6015,22 +5820,22 @@
         <v>20</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>311</v>
+        <v>227</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>314</v>
+        <v>230</v>
       </c>
       <c r="X5" s="5" t="s">
         <v>152</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>323</v>
+        <v>549</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>327</v>
+        <v>550</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>331</v>
+        <v>57</v>
       </c>
       <c r="AB5" s="8" t="s">
         <v>56</v>
@@ -6126,8 +5931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC5"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6155,10 +5960,10 @@
   <sheetData>
     <row r="1" spans="1:55" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -6325,10 +6130,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>437</v>
+        <v>350</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>97</v>
@@ -6352,7 +6157,7 @@
         <v>120</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>441</v>
+        <v>354</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>13</v>
@@ -6385,19 +6190,19 @@
         <v>20</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>629</v>
+        <v>536</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>445</v>
+        <v>358</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>449</v>
+        <v>361</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>453</v>
+        <v>364</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>457</v>
+        <v>367</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>57</v>
@@ -6492,10 +6297,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>438</v>
+        <v>351</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>97</v>
@@ -6504,7 +6309,7 @@
         <v>98</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>300</v>
+        <v>216</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
@@ -6519,7 +6324,7 @@
         <v>120</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>442</v>
+        <v>355</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>13</v>
@@ -6552,19 +6357,19 @@
         <v>20</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>630</v>
+        <v>537</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>446</v>
+        <v>359</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>454</v>
+        <v>365</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>458</v>
+        <v>368</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>57</v>
@@ -6656,13 +6461,13 @@
     </row>
     <row r="4" spans="1:55" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>439</v>
+        <v>352</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>97</v>
@@ -6671,7 +6476,7 @@
         <v>98</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>301</v>
+        <v>217</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>6</v>
@@ -6686,7 +6491,7 @@
         <v>120</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>443</v>
+        <v>356</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>13</v>
@@ -6719,19 +6524,19 @@
         <v>20</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>631</v>
+        <v>538</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>447</v>
+        <v>360</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>451</v>
+        <v>363</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>455</v>
+        <v>366</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>459</v>
+        <v>369</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>57</v>
@@ -6826,10 +6631,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>97</v>
@@ -6838,7 +6643,7 @@
         <v>98</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
@@ -6853,7 +6658,7 @@
         <v>120</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>444</v>
+        <v>357</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
@@ -6886,19 +6691,19 @@
         <v>20</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>448</v>
+        <v>553</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>452</v>
+        <v>554</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>456</v>
+        <v>552</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>460</v>
+        <v>551</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>57</v>
@@ -6996,11 +6801,9 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT5"/>
+  <dimension ref="A1:BT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7035,11 +6838,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>167</v>
+      <c r="A1" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -7254,13 +7057,13 @@
     </row>
     <row r="2" spans="1:72" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>246</v>
+        <v>566</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -7269,13 +7072,13 @@
         <v>125</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>6</v>
@@ -7308,7 +7111,7 @@
         <v>121</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>253</v>
+        <v>565</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>6</v>
@@ -7344,16 +7147,16 @@
         <v>20</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>256</v>
+        <v>184</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>263</v>
+        <v>539</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>260</v>
+        <v>544</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>56</v>
@@ -7475,10 +7278,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>247</v>
+        <v>567</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
@@ -7487,7 +7290,7 @@
         <v>125</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>250</v>
+        <v>571</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
@@ -7496,10 +7299,10 @@
         <v>6</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>6</v>
@@ -7526,7 +7329,7 @@
         <v>121</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>254</v>
+        <v>575</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>6</v>
@@ -7562,16 +7365,16 @@
         <v>20</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>264</v>
+        <v>539</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>261</v>
+        <v>544</v>
       </c>
       <c r="AI3" s="8" t="s">
         <v>56</v>
@@ -7690,13 +7493,13 @@
     </row>
     <row r="4" spans="1:72" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>248</v>
+        <v>568</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
@@ -7705,10 +7508,10 @@
         <v>125</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>251</v>
+        <v>572</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>6</v>
@@ -7744,7 +7547,7 @@
         <v>121</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>255</v>
+        <v>576</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>6</v>
@@ -7780,16 +7583,16 @@
         <v>20</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>265</v>
+        <v>539</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>262</v>
+        <v>544</v>
       </c>
       <c r="AI4" s="8" t="s">
         <v>56</v>
@@ -7911,10 +7714,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>640</v>
+        <v>569</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
@@ -7923,7 +7726,7 @@
         <v>125</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>252</v>
+        <v>573</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
@@ -7962,7 +7765,7 @@
         <v>121</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>641</v>
+        <v>577</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>6</v>
@@ -7998,16 +7801,16 @@
         <v>20</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>633</v>
+        <v>539</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>642</v>
+        <v>544</v>
       </c>
       <c r="AI5" s="8" t="s">
         <v>56</v>
@@ -8121,6 +7924,224 @@
         <v>119</v>
       </c>
       <c r="BT5" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:72" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BL6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BN6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BO6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BR6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BS6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BT6" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -8132,10 +8153,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU9"/>
+  <dimension ref="A1:BU7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8198,11 +8219,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>167</v>
+      <c r="A1" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -8420,13 +8441,13 @@
     </row>
     <row r="2" spans="1:73" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>177</v>
+        <v>564</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>24</v>
@@ -8435,7 +8456,7 @@
         <v>123</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>124</v>
@@ -8477,7 +8498,7 @@
         <v>121</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>199</v>
+        <v>57</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>6</v>
@@ -8501,10 +8522,10 @@
         <v>13</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>13</v>
@@ -8516,22 +8537,22 @@
         <v>163</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>165</v>
+        <v>562</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>222</v>
+        <v>563</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
       <c r="AK2" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="AM2" s="8" t="s">
         <v>6</v>
@@ -8549,13 +8570,13 @@
         <v>57</v>
       </c>
       <c r="AR2" s="8" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AT2" s="8" t="s">
-        <v>56</v>
+        <v>349</v>
       </c>
       <c r="AU2" s="8" t="s">
         <v>48</v>
@@ -8627,10 +8648,10 @@
         <v>112</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="BS2" s="3" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="BT2" s="1" t="s">
         <v>119</v>
@@ -8644,10 +8665,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>178</v>
+        <v>561</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>24</v>
@@ -8656,7 +8677,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>124</v>
@@ -8698,7 +8719,7 @@
         <v>121</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>6</v>
@@ -8722,10 +8743,10 @@
         <v>13</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="AD3" s="5" t="s">
         <v>13</v>
@@ -8737,13 +8758,13 @@
         <v>163</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>215</v>
+        <v>562</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>223</v>
+        <v>563</v>
       </c>
       <c r="AJ3" s="8" t="s">
         <v>56</v>
@@ -8752,10 +8773,10 @@
         <v>56</v>
       </c>
       <c r="AL3" s="8" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="AM3" s="8" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="AN3" s="8" t="s">
         <v>6</v>
@@ -8776,7 +8797,7 @@
         <v>13</v>
       </c>
       <c r="AT3" s="8" t="s">
-        <v>56</v>
+        <v>349</v>
       </c>
       <c r="AU3" s="8" t="s">
         <v>48</v>
@@ -8848,10 +8869,10 @@
         <v>112</v>
       </c>
       <c r="BR3" s="3" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="BS3" s="3" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="BT3" s="1" t="s">
         <v>119</v>
@@ -8862,13 +8883,13 @@
     </row>
     <row r="4" spans="1:73" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>179</v>
+        <v>561</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>24</v>
@@ -8877,7 +8898,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>124</v>
@@ -8895,10 +8916,10 @@
         <v>13</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>56</v>
@@ -8919,7 +8940,7 @@
         <v>121</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>6</v>
@@ -8943,10 +8964,10 @@
         <v>13</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="AD4" s="5" t="s">
         <v>13</v>
@@ -8958,13 +8979,13 @@
         <v>163</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>216</v>
+        <v>562</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>224</v>
+        <v>563</v>
       </c>
       <c r="AJ4" s="8" t="s">
         <v>56</v>
@@ -8973,7 +8994,7 @@
         <v>56</v>
       </c>
       <c r="AL4" s="8" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="AM4" s="8" t="s">
         <v>6</v>
@@ -8991,13 +9012,13 @@
         <v>57</v>
       </c>
       <c r="AR4" s="8" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="AS4" s="8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AT4" s="8" t="s">
-        <v>56</v>
+        <v>349</v>
       </c>
       <c r="AU4" s="8" t="s">
         <v>48</v>
@@ -9069,10 +9090,10 @@
         <v>112</v>
       </c>
       <c r="BR4" s="3" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="BS4" s="3" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="BT4" s="1" t="s">
         <v>119</v>
@@ -9083,13 +9104,13 @@
     </row>
     <row r="5" spans="1:73" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>180</v>
+        <v>561</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>24</v>
@@ -9098,7 +9119,7 @@
         <v>123</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>124</v>
@@ -9116,10 +9137,10 @@
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>56</v>
@@ -9140,7 +9161,7 @@
         <v>121</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>6</v>
@@ -9164,10 +9185,10 @@
         <v>13</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="AD5" s="5" t="s">
         <v>13</v>
@@ -9179,13 +9200,13 @@
         <v>163</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>217</v>
+        <v>562</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>225</v>
+        <v>563</v>
       </c>
       <c r="AJ5" s="8" t="s">
         <v>56</v>
@@ -9194,10 +9215,10 @@
         <v>56</v>
       </c>
       <c r="AL5" s="8" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="AM5" s="8" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="AN5" s="8" t="s">
         <v>6</v>
@@ -9212,13 +9233,13 @@
         <v>57</v>
       </c>
       <c r="AR5" s="8" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="AS5" s="8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AT5" s="8" t="s">
-        <v>56</v>
+        <v>349</v>
       </c>
       <c r="AU5" s="8" t="s">
         <v>48</v>
@@ -9290,10 +9311,10 @@
         <v>112</v>
       </c>
       <c r="BR5" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="BS5" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="BT5" s="1" t="s">
         <v>119</v>
@@ -9304,13 +9325,13 @@
     </row>
     <row r="6" spans="1:73" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>181</v>
+        <v>561</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>24</v>
@@ -9319,7 +9340,7 @@
         <v>123</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>124</v>
@@ -9361,7 +9382,7 @@
         <v>121</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>6</v>
@@ -9385,10 +9406,10 @@
         <v>13</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="AD6" s="5" t="s">
         <v>13</v>
@@ -9400,13 +9421,13 @@
         <v>163</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>218</v>
+        <v>562</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>226</v>
+        <v>563</v>
       </c>
       <c r="AJ6" s="8" t="s">
         <v>56</v>
@@ -9415,7 +9436,7 @@
         <v>56</v>
       </c>
       <c r="AL6" s="8" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="AM6" s="8" t="s">
         <v>6</v>
@@ -9439,7 +9460,7 @@
         <v>13</v>
       </c>
       <c r="AT6" s="8" t="s">
-        <v>436</v>
+        <v>349</v>
       </c>
       <c r="AU6" s="8" t="s">
         <v>48</v>
@@ -9511,10 +9532,10 @@
         <v>112</v>
       </c>
       <c r="BR6" s="3" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="BS6" s="3" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="BT6" s="1" t="s">
         <v>119</v>
@@ -9525,13 +9546,13 @@
     </row>
     <row r="7" spans="1:73" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>182</v>
+        <v>561</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>24</v>
@@ -9540,7 +9561,7 @@
         <v>123</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>124</v>
@@ -9558,10 +9579,10 @@
         <v>13</v>
       </c>
       <c r="L7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>56</v>
@@ -9582,7 +9603,7 @@
         <v>121</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>6</v>
@@ -9606,10 +9627,10 @@
         <v>13</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="AD7" s="5" t="s">
         <v>13</v>
@@ -9621,13 +9642,13 @@
         <v>163</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>219</v>
+        <v>562</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>227</v>
+        <v>563</v>
       </c>
       <c r="AJ7" s="8" t="s">
         <v>56</v>
@@ -9636,7 +9657,7 @@
         <v>56</v>
       </c>
       <c r="AL7" s="8" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="AM7" s="8" t="s">
         <v>6</v>
@@ -9654,13 +9675,13 @@
         <v>57</v>
       </c>
       <c r="AR7" s="8" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="AS7" s="8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AT7" s="8" t="s">
-        <v>56</v>
+        <v>349</v>
       </c>
       <c r="AU7" s="8" t="s">
         <v>48</v>
@@ -9732,475 +9753,21 @@
         <v>112</v>
       </c>
       <c r="BR7" s="3" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="BS7" s="3" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="BT7" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF8" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH8" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="AJ8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL8" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AX8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BJ8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BM8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BN8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BO8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BP8" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BQ8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BR8" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="BS8" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="BT8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BU8" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:73" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="X9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB9" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC9" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF9" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG9" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH9" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI9" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL9" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="AM9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT9" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="AU9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AX9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BJ9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BM9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BN9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BO9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BP9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BQ9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BR9" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="BS9" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="BT9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BU9" s="1" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10209,7 +9776,7 @@
   <dimension ref="A1:BC8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10240,10 +9807,10 @@
   <sheetData>
     <row r="1" spans="1:55" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -10410,10 +9977,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>499</v>
+        <v>408</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>103</v>
@@ -10437,7 +10004,7 @@
         <v>120</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>510</v>
+        <v>419</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>6</v>
@@ -10455,7 +10022,7 @@
         <v>6</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>13</v>
@@ -10470,19 +10037,19 @@
         <v>20</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>520</v>
+        <v>429</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>506</v>
+        <v>415</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>527</v>
+        <v>436</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>57</v>
@@ -10577,10 +10144,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>500</v>
+        <v>409</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>103</v>
@@ -10604,7 +10171,7 @@
         <v>120</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>511</v>
+        <v>420</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>6</v>
@@ -10622,7 +10189,7 @@
         <v>6</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>13</v>
@@ -10643,13 +10210,13 @@
         <v>22</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>521</v>
+        <v>430</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>528</v>
+        <v>437</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>57</v>
@@ -10744,10 +10311,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>501</v>
+        <v>410</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>103</v>
@@ -10771,7 +10338,7 @@
         <v>120</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>512</v>
+        <v>421</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>6</v>
@@ -10789,7 +10356,7 @@
         <v>6</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>13</v>
@@ -10804,19 +10371,19 @@
         <v>20</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>277</v>
+        <v>195</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>522</v>
+        <v>431</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>508</v>
+        <v>417</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>529</v>
+        <v>438</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>57</v>
@@ -10911,10 +10478,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>502</v>
+        <v>411</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>103</v>
@@ -10923,7 +10490,7 @@
         <v>104</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>506</v>
+        <v>415</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>13</v>
@@ -10938,7 +10505,7 @@
         <v>120</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>513</v>
+        <v>422</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>6</v>
@@ -10956,7 +10523,7 @@
         <v>6</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>13</v>
@@ -10971,19 +10538,19 @@
         <v>20</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>278</v>
+        <v>196</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>523</v>
+        <v>432</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>509</v>
+        <v>418</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>530</v>
+        <v>439</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>57</v>
@@ -11078,10 +10645,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>503</v>
+        <v>412</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>103</v>
@@ -11090,7 +10657,7 @@
         <v>104</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
@@ -11105,7 +10672,7 @@
         <v>120</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>514</v>
+        <v>423</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>6</v>
@@ -11123,7 +10690,7 @@
         <v>6</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>13</v>
@@ -11138,19 +10705,19 @@
         <v>20</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>524</v>
+        <v>433</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>517</v>
+        <v>426</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>531</v>
+        <v>440</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>57</v>
@@ -11245,10 +10812,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>504</v>
+        <v>413</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>103</v>
@@ -11257,7 +10824,7 @@
         <v>104</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>508</v>
+        <v>417</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>13</v>
@@ -11272,7 +10839,7 @@
         <v>120</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>515</v>
+        <v>424</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>6</v>
@@ -11290,7 +10857,7 @@
         <v>6</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>13</v>
@@ -11305,19 +10872,19 @@
         <v>20</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>525</v>
+        <v>434</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>518</v>
+        <v>427</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>532</v>
+        <v>441</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>57</v>
@@ -11412,10 +10979,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>505</v>
+        <v>414</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>103</v>
@@ -11424,7 +10991,7 @@
         <v>104</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>509</v>
+        <v>418</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>13</v>
@@ -11439,7 +11006,7 @@
         <v>120</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>516</v>
+        <v>425</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>6</v>
@@ -11457,7 +11024,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>13</v>
@@ -11472,19 +11039,19 @@
         <v>20</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="W8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>526</v>
+        <v>435</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>519</v>
+        <v>428</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>533</v>
+        <v>442</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>57</v>
@@ -11583,9 +11150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11613,10 +11178,10 @@
   <sheetData>
     <row r="1" spans="1:55" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -11783,10 +11348,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>534</v>
+        <v>443</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>105</v>
@@ -11849,7 +11414,7 @@
         <v>160</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>576</v>
+        <v>485</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>161</v>
@@ -11950,10 +11515,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>535</v>
+        <v>444</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>105</v>
@@ -11962,7 +11527,7 @@
         <v>106</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>543</v>
+        <v>452</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
@@ -11977,7 +11542,7 @@
         <v>120</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>551</v>
+        <v>460</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>6</v>
@@ -11995,7 +11560,7 @@
         <v>6</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>13</v>
@@ -12007,25 +11572,25 @@
         <v>13</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>559</v>
+        <v>468</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>567</v>
+        <v>476</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>569</v>
+        <v>478</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>577</v>
+        <v>486</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>585</v>
+        <v>494</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>592</v>
+        <v>501</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>534</v>
+        <v>443</v>
       </c>
       <c r="AB3" s="8" t="s">
         <v>56</v>
@@ -12117,10 +11682,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>536</v>
+        <v>445</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>105</v>
@@ -12129,7 +11694,7 @@
         <v>106</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>544</v>
+        <v>453</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -12144,7 +11709,7 @@
         <v>120</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>552</v>
+        <v>461</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>6</v>
@@ -12174,25 +11739,25 @@
         <v>13</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>560</v>
+        <v>469</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>568</v>
+        <v>477</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>570</v>
+        <v>479</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>578</v>
+        <v>487</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>586</v>
+        <v>495</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>593</v>
+        <v>502</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>535</v>
+        <v>444</v>
       </c>
       <c r="AB4" s="8" t="s">
         <v>56</v>
@@ -12284,10 +11849,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>537</v>
+        <v>446</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>105</v>
@@ -12296,7 +11861,7 @@
         <v>106</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>545</v>
+        <v>454</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>13</v>
@@ -12311,7 +11876,7 @@
         <v>120</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>553</v>
+        <v>462</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>6</v>
@@ -12341,25 +11906,25 @@
         <v>13</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>561</v>
+        <v>470</v>
       </c>
       <c r="V5" s="5" t="s">
         <v>94</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>571</v>
+        <v>480</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>579</v>
+        <v>488</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>587</v>
+        <v>496</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>594</v>
+        <v>503</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>536</v>
+        <v>445</v>
       </c>
       <c r="AB5" s="8" t="s">
         <v>56</v>
@@ -12451,10 +12016,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>538</v>
+        <v>447</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>105</v>
@@ -12463,7 +12028,7 @@
         <v>106</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>546</v>
+        <v>455</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
@@ -12478,7 +12043,7 @@
         <v>120</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>554</v>
+        <v>463</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>6</v>
@@ -12508,25 +12073,25 @@
         <v>13</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>562</v>
+        <v>471</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>345</v>
+        <v>258</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>572</v>
+        <v>481</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>580</v>
+        <v>489</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>588</v>
+        <v>497</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>595</v>
+        <v>504</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>537</v>
+        <v>446</v>
       </c>
       <c r="AB6" s="8" t="s">
         <v>56</v>
@@ -12618,10 +12183,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>539</v>
+        <v>448</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>105</v>
@@ -12630,7 +12195,7 @@
         <v>106</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>547</v>
+        <v>456</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>13</v>
@@ -12645,7 +12210,7 @@
         <v>120</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>555</v>
+        <v>464</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>6</v>
@@ -12675,25 +12240,25 @@
         <v>13</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>563</v>
+        <v>472</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>346</v>
+        <v>259</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>573</v>
+        <v>482</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>581</v>
+        <v>490</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>589</v>
+        <v>498</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>596</v>
+        <v>505</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>538</v>
+        <v>447</v>
       </c>
       <c r="AB7" s="8" t="s">
         <v>56</v>
@@ -12785,10 +12350,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>540</v>
+        <v>449</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>105</v>
@@ -12797,7 +12362,7 @@
         <v>106</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>548</v>
+        <v>457</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>13</v>
@@ -12812,7 +12377,7 @@
         <v>120</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>556</v>
+        <v>465</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>6</v>
@@ -12842,25 +12407,25 @@
         <v>13</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>564</v>
+        <v>473</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>347</v>
+        <v>260</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>582</v>
+        <v>491</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>590</v>
+        <v>499</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>597</v>
+        <v>506</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>539</v>
+        <v>448</v>
       </c>
       <c r="AB8" s="8" t="s">
         <v>56</v>
@@ -12952,10 +12517,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>541</v>
+        <v>450</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>105</v>
@@ -12964,7 +12529,7 @@
         <v>106</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>549</v>
+        <v>458</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>13</v>
@@ -12979,7 +12544,7 @@
         <v>120</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>557</v>
+        <v>466</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>6</v>
@@ -13009,25 +12574,25 @@
         <v>13</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>565</v>
+        <v>474</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>348</v>
+        <v>261</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>575</v>
+        <v>484</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>583</v>
+        <v>492</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>591</v>
+        <v>500</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>598</v>
+        <v>507</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>540</v>
+        <v>449</v>
       </c>
       <c r="AB9" s="8" t="s">
         <v>56</v>
@@ -13119,10 +12684,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>542</v>
+        <v>451</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>105</v>
@@ -13131,7 +12696,7 @@
         <v>106</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>550</v>
+        <v>459</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>13</v>
@@ -13146,7 +12711,7 @@
         <v>120</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>558</v>
+        <v>467</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>6</v>
@@ -13176,7 +12741,7 @@
         <v>13</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>566</v>
+        <v>475</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>129</v>
@@ -13185,16 +12750,16 @@
         <v>160</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>584</v>
+        <v>493</v>
       </c>
       <c r="Y10" s="5" t="s">
         <v>161</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>599</v>
+        <v>508</v>
       </c>
       <c r="AA10" s="8" t="s">
-        <v>541</v>
+        <v>450</v>
       </c>
       <c r="AB10" s="8" t="s">
         <v>56</v>
@@ -13286,10 +12851,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>537</v>
+        <v>446</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>105</v>
@@ -13298,7 +12863,7 @@
         <v>106</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>545</v>
+        <v>454</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>13</v>
@@ -13313,7 +12878,7 @@
         <v>120</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>553</v>
+        <v>462</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>6</v>
@@ -13331,7 +12896,7 @@
         <v>6</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>13</v>
@@ -13343,25 +12908,25 @@
         <v>13</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>561</v>
+        <v>470</v>
       </c>
       <c r="V11" s="5" t="s">
         <v>94</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>571</v>
+        <v>480</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>579</v>
+        <v>488</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>587</v>
+        <v>496</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>594</v>
+        <v>503</v>
       </c>
       <c r="AA11" s="8" t="s">
-        <v>536</v>
+        <v>445</v>
       </c>
       <c r="AB11" s="8" t="s">
         <v>56</v>
@@ -13459,7 +13024,7 @@
   <dimension ref="A1:BC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13487,10 +13052,10 @@
   <sheetData>
     <row r="1" spans="1:55" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -13657,10 +13222,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>601</v>
+        <v>510</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>107</v>
@@ -13669,7 +13234,7 @@
         <v>108</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>604</v>
+        <v>513</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -13684,7 +13249,7 @@
         <v>120</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>607</v>
+        <v>516</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>6</v>
@@ -13702,7 +13267,7 @@
         <v>6</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>13</v>
@@ -13717,22 +13282,22 @@
         <v>20</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>612</v>
+        <v>521</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>615</v>
+        <v>524</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>618</v>
+        <v>527</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>610</v>
+        <v>519</v>
       </c>
       <c r="AB2" s="8" t="s">
         <v>56</v>
@@ -13824,10 +13389,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>602</v>
+        <v>511</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>107</v>
@@ -13836,7 +13401,7 @@
         <v>108</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>605</v>
+        <v>514</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
@@ -13851,7 +13416,7 @@
         <v>120</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>608</v>
+        <v>517</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>6</v>
@@ -13869,7 +13434,7 @@
         <v>6</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>13</v>
@@ -13890,16 +13455,16 @@
         <v>22</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>613</v>
+        <v>522</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>616</v>
+        <v>525</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>619</v>
+        <v>528</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>611</v>
+        <v>520</v>
       </c>
       <c r="AB3" s="8" t="s">
         <v>56</v>
@@ -13991,10 +13556,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>603</v>
+        <v>512</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>107</v>
@@ -14003,7 +13568,7 @@
         <v>108</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>606</v>
+        <v>515</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -14018,7 +13583,7 @@
         <v>120</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>609</v>
+        <v>518</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>6</v>
@@ -14036,7 +13601,7 @@
         <v>6</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>13</v>
@@ -14051,22 +13616,22 @@
         <v>20</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>277</v>
+        <v>195</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>614</v>
+        <v>523</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>617</v>
+        <v>526</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>620</v>
+        <v>529</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>645</v>
+        <v>547</v>
       </c>
       <c r="AB4" s="8" t="s">
         <v>56</v>
@@ -14163,7 +13728,7 @@
   <dimension ref="A1:BT6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14212,12 +13777,12 @@
     <col min="73" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -14435,10 +14000,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>461</v>
+        <v>370</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>55</v>
@@ -14447,7 +14012,7 @@
         <v>127</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>466</v>
+        <v>375</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -14513,10 +14078,10 @@
         <v>6</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>471</v>
+        <v>380</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>476</v>
+        <v>385</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>6</v>
@@ -14528,16 +14093,16 @@
         <v>20</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>481</v>
+        <v>390</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>484</v>
+        <v>393</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>489</v>
+        <v>398</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>494</v>
+        <v>403</v>
       </c>
       <c r="AK2" s="8" t="s">
         <v>56</v>
@@ -14653,10 +14218,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>462</v>
+        <v>371</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>55</v>
@@ -14665,7 +14230,7 @@
         <v>127</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>467</v>
+        <v>376</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>124</v>
@@ -14731,10 +14296,10 @@
         <v>6</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>472</v>
+        <v>381</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>477</v>
+        <v>386</v>
       </c>
       <c r="AD3" s="5" t="s">
         <v>6</v>
@@ -14746,16 +14311,16 @@
         <v>20</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>482</v>
+        <v>391</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>485</v>
+        <v>394</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>490</v>
+        <v>399</v>
       </c>
       <c r="AJ3" s="8" t="s">
-        <v>495</v>
+        <v>404</v>
       </c>
       <c r="AK3" s="8" t="s">
         <v>56</v>
@@ -14871,10 +14436,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>463</v>
+        <v>372</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>55</v>
@@ -14883,7 +14448,7 @@
         <v>127</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>468</v>
+        <v>377</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -14949,10 +14514,10 @@
         <v>6</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>473</v>
+        <v>382</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>478</v>
+        <v>387</v>
       </c>
       <c r="AD4" s="5" t="s">
         <v>6</v>
@@ -14967,13 +14532,13 @@
         <v>21</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>486</v>
+        <v>395</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>491</v>
+        <v>400</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>496</v>
+        <v>405</v>
       </c>
       <c r="AK4" s="8" t="s">
         <v>56</v>
@@ -15089,10 +14654,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>464</v>
+        <v>373</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>55</v>
@@ -15101,7 +14666,7 @@
         <v>127</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>469</v>
+        <v>378</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>124</v>
@@ -15167,10 +14732,10 @@
         <v>6</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>474</v>
+        <v>383</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>479</v>
+        <v>388</v>
       </c>
       <c r="AD5" s="5" t="s">
         <v>6</v>
@@ -15182,16 +14747,16 @@
         <v>20</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>487</v>
+        <v>396</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>492</v>
+        <v>401</v>
       </c>
       <c r="AJ5" s="8" t="s">
-        <v>497</v>
+        <v>406</v>
       </c>
       <c r="AK5" s="8" t="s">
         <v>56</v>
@@ -15307,10 +14872,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>465</v>
+        <v>374</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>55</v>
@@ -15319,7 +14884,7 @@
         <v>127</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>470</v>
+        <v>379</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
@@ -15379,16 +14944,16 @@
         <v>6</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>475</v>
+        <v>384</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>480</v>
+        <v>389</v>
       </c>
       <c r="AD6" s="5" t="s">
         <v>13</v>
@@ -15403,13 +14968,13 @@
         <v>143</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>488</v>
+        <v>397</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>493</v>
+        <v>402</v>
       </c>
       <c r="AJ6" s="8" t="s">
-        <v>498</v>
+        <v>407</v>
       </c>
       <c r="AK6" s="8" t="s">
         <v>56</v>
@@ -15531,7 +15096,7 @@
   <dimension ref="A1:BU5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15577,10 +15142,10 @@
   <sheetData>
     <row r="1" spans="1:73" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -15801,10 +15366,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>417</v>
+        <v>330</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>52</v>
@@ -15897,13 +15462,13 @@
         <v>124</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>424</v>
+        <v>337</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>428</v>
+        <v>341</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>432</v>
+        <v>345</v>
       </c>
       <c r="AK2" s="8" t="s">
         <v>56</v>
@@ -16022,10 +15587,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>418</v>
+        <v>331</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>52</v>
@@ -16034,7 +15599,7 @@
         <v>96</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>421</v>
+        <v>334</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
@@ -16118,13 +15683,13 @@
         <v>124</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>425</v>
+        <v>338</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>429</v>
+        <v>342</v>
       </c>
       <c r="AJ3" s="8" t="s">
-        <v>433</v>
+        <v>346</v>
       </c>
       <c r="AK3" s="8" t="s">
         <v>56</v>
@@ -16243,10 +15808,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>419</v>
+        <v>332</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>52</v>
@@ -16255,7 +15820,7 @@
         <v>96</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>422</v>
+        <v>335</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>6</v>
@@ -16339,13 +15904,13 @@
         <v>124</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>426</v>
+        <v>339</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>430</v>
+        <v>343</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>434</v>
+        <v>347</v>
       </c>
       <c r="AK4" s="8" t="s">
         <v>56</v>
@@ -16464,10 +16029,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>420</v>
+        <v>333</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>52</v>
@@ -16476,7 +16041,7 @@
         <v>96</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>423</v>
+        <v>336</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>13</v>
@@ -16536,7 +16101,7 @@
         <v>6</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA5" s="5" t="s">
         <v>13</v>
@@ -16560,13 +16125,13 @@
         <v>13</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>427</v>
+        <v>340</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>431</v>
+        <v>344</v>
       </c>
       <c r="AJ5" s="8" t="s">
-        <v>435</v>
+        <v>348</v>
       </c>
       <c r="AK5" s="8" t="s">
         <v>56</v>
@@ -16741,10 +16306,10 @@
   <sheetData>
     <row r="1" spans="1:71" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -16959,10 +16524,10 @@
         <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>361</v>
+        <v>274</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>130</v>
@@ -17052,13 +16617,13 @@
         <v>124</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>368</v>
+        <v>281</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="AI2" s="11" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="AJ2" s="11" t="s">
         <v>56</v>
@@ -17174,10 +16739,10 @@
         <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>130</v>
@@ -17186,7 +16751,7 @@
         <v>54</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>365</v>
+        <v>278</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
@@ -17267,13 +16832,13 @@
         <v>124</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>369</v>
+        <v>282</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>317</v>
+        <v>233</v>
       </c>
       <c r="AI3" s="11" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="AJ3" s="11" t="s">
         <v>56</v>
@@ -17389,10 +16954,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>363</v>
+        <v>276</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>130</v>
@@ -17401,7 +16966,7 @@
         <v>54</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>366</v>
+        <v>279</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -17482,13 +17047,13 @@
         <v>124</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>370</v>
+        <v>283</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>318</v>
+        <v>234</v>
       </c>
       <c r="AI4" s="11" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="AJ4" s="11" t="s">
         <v>56</v>
@@ -17601,13 +17166,13 @@
     </row>
     <row r="5" spans="1:71" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>364</v>
+        <v>277</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>130</v>
@@ -17616,7 +17181,7 @@
         <v>54</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
@@ -17673,7 +17238,7 @@
         <v>6</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z5" s="5" t="s">
         <v>13</v>
@@ -17697,13 +17262,13 @@
         <v>13</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>319</v>
+        <v>235</v>
       </c>
       <c r="AI5" s="11" t="s">
-        <v>375</v>
+        <v>288</v>
       </c>
       <c r="AJ5" s="11" t="s">
         <v>56</v>
@@ -17824,9 +17389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17845,10 +17408,10 @@
   <sheetData>
     <row r="1" spans="1:55" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -18015,10 +17578,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>332</v>
+        <v>245</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>99</v>
@@ -18027,7 +17590,7 @@
         <v>122</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>335</v>
+        <v>248</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -18042,7 +17605,7 @@
         <v>120</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>339</v>
+        <v>252</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>6</v>
@@ -18054,13 +17617,13 @@
         <v>13</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>345</v>
+        <v>258</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>342</v>
+        <v>255</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>60</v>
@@ -18078,16 +17641,16 @@
         <v>158</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>349</v>
+        <v>262</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>355</v>
+        <v>268</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>56</v>
@@ -18182,10 +17745,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>333</v>
+        <v>246</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>99</v>
@@ -18194,7 +17757,7 @@
         <v>122</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>336</v>
+        <v>249</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
@@ -18209,7 +17772,7 @@
         <v>120</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>340</v>
+        <v>253</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>6</v>
@@ -18221,13 +17784,13 @@
         <v>13</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>346</v>
+        <v>259</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>343</v>
+        <v>256</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>60</v>
@@ -18245,16 +17808,16 @@
         <v>158</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>350</v>
+        <v>263</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>359</v>
+        <v>272</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>356</v>
+        <v>269</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>56</v>
@@ -18349,10 +17912,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>334</v>
+        <v>247</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>99</v>
@@ -18361,7 +17924,7 @@
         <v>122</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>337</v>
+        <v>250</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -18376,7 +17939,7 @@
         <v>120</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>341</v>
+        <v>254</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>6</v>
@@ -18388,13 +17951,13 @@
         <v>13</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>347</v>
+        <v>260</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>344</v>
+        <v>257</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>60</v>
@@ -18412,16 +17975,16 @@
         <v>158</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>351</v>
+        <v>264</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>354</v>
+        <v>267</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>360</v>
+        <v>273</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>357</v>
+        <v>270</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>56</v>
@@ -18516,10 +18079,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>634</v>
+        <v>540</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>99</v>
@@ -18528,7 +18091,7 @@
         <v>122</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>338</v>
+        <v>251</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
@@ -18543,7 +18106,7 @@
         <v>120</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>635</v>
+        <v>541</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>6</v>
@@ -18561,7 +18124,7 @@
         <v>6</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>600</v>
+        <v>509</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>60</v>
@@ -18579,16 +18142,16 @@
         <v>158</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>636</v>
+        <v>542</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>637</v>
+        <v>543</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>638</v>
+        <v>559</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>639</v>
+        <v>560</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>56</v>
@@ -18689,7 +18252,7 @@
   <dimension ref="A1:BC5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18727,10 +18290,10 @@
   <sheetData>
     <row r="1" spans="1:55" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -18897,10 +18460,10 @@
         <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>51</v>
@@ -18924,7 +18487,7 @@
         <v>120</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>273</v>
+        <v>191</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>6</v>
@@ -18960,16 +18523,16 @@
         <v>143</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>290</v>
+        <v>208</v>
       </c>
       <c r="AA2" s="11" t="s">
         <v>57</v>
@@ -19064,10 +18627,10 @@
         <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>51</v>
@@ -19076,7 +18639,7 @@
         <v>53</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>270</v>
+        <v>189</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
@@ -19091,7 +18654,7 @@
         <v>120</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>6</v>
@@ -19124,19 +18687,19 @@
         <v>20</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>277</v>
+        <v>195</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>287</v>
+        <v>205</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>283</v>
+        <v>201</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>294</v>
+        <v>211</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>291</v>
+        <v>209</v>
       </c>
       <c r="AA3" s="11" t="s">
         <v>57</v>
@@ -19214,7 +18777,7 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="BA3" s="3" t="s">
         <v>115</v>
@@ -19231,10 +18794,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>51</v>
@@ -19243,7 +18806,7 @@
         <v>53</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>271</v>
+        <v>190</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -19258,7 +18821,7 @@
         <v>120</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>275</v>
+        <v>193</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>6</v>
@@ -19291,19 +18854,19 @@
         <v>20</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>278</v>
+        <v>196</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>288</v>
+        <v>206</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>643</v>
+        <v>545</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>644</v>
+        <v>546</v>
       </c>
       <c r="AA4" s="11" t="s">
         <v>57</v>
@@ -19381,7 +18944,7 @@
         <v>112</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="BA4" s="3" t="s">
         <v>115</v>
@@ -19395,13 +18958,13 @@
     </row>
     <row r="5" spans="1:55" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>269</v>
+        <v>188</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>51</v>
@@ -19410,7 +18973,7 @@
         <v>53</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>272</v>
+        <v>558</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>13</v>
@@ -19425,7 +18988,7 @@
         <v>120</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>276</v>
+        <v>194</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>6</v>
@@ -19458,19 +19021,19 @@
         <v>20</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>289</v>
+        <v>207</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>295</v>
+        <v>545</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>292</v>
+        <v>546</v>
       </c>
       <c r="AA5" s="11" t="s">
         <v>57</v>
@@ -19548,7 +19111,7 @@
         <v>112</v>
       </c>
       <c r="AZ5" s="3" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="BA5" s="3" t="s">
         <v>115</v>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCN_CreateAccessCoreDevice_TestData.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_MCN_CreateAccessCoreDevice_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="LoadBalancer" sheetId="15" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="MiniDSLAM" sheetId="14" r:id="rId12"/>
     <sheet name="AccessSwitch" sheetId="5" r:id="rId13"/>
     <sheet name="AccessRouter" sheetId="4" r:id="rId14"/>
+    <sheet name="unique column names" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5387" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5412" uniqueCount="591">
   <si>
     <t>Name</t>
   </si>
@@ -1717,9 +1718,6 @@
     <t>JP6</t>
   </si>
   <si>
-    <t>accessRouteest557</t>
-  </si>
-  <si>
     <t>ARS21</t>
   </si>
   <si>
@@ -1769,6 +1767,45 @@
   </si>
   <si>
     <t>16.92.11.42</t>
+  </si>
+  <si>
+    <t>Unique Column</t>
+  </si>
+  <si>
+    <t>If "NewPremise" is marked as "Yes"</t>
+  </si>
+  <si>
+    <t>If "NewCity" is marked as "Yes"</t>
+  </si>
+  <si>
+    <t>If "NewSite" is marked as "Yes"</t>
+  </si>
+  <si>
+    <t>Should be null or unique</t>
+  </si>
+  <si>
+    <t>Should be unique, if "editNewCity" is marked as "Yes"</t>
+  </si>
+  <si>
+    <t>Should be unique, if "editNewSite" is marked as "Yes"</t>
+  </si>
+  <si>
+    <t>Should be unique, if "editNewPremise" is marked as "Yes"</t>
+  </si>
+  <si>
+    <t>accessRouteest559</t>
+  </si>
+  <si>
+    <t>accessRouteest560</t>
+  </si>
+  <si>
+    <t>accessRouteest561</t>
+  </si>
+  <si>
+    <t>accessRouteest562</t>
+  </si>
+  <si>
+    <t>accessRouteest563</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +1873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1871,6 +1908,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6803,7 +6844,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7057,13 +7100,13 @@
     </row>
     <row r="2" spans="1:72" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -7111,7 +7154,7 @@
         <v>121</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>6</v>
@@ -7281,7 +7324,7 @@
         <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
@@ -7290,7 +7333,7 @@
         <v>125</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
@@ -7329,7 +7372,7 @@
         <v>121</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>6</v>
@@ -7499,7 +7542,7 @@
         <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
@@ -7508,7 +7551,7 @@
         <v>125</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>6</v>
@@ -7547,7 +7590,7 @@
         <v>121</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>6</v>
@@ -7711,13 +7754,13 @@
     </row>
     <row r="5" spans="1:72" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
@@ -7726,7 +7769,7 @@
         <v>125</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
@@ -7765,7 +7808,7 @@
         <v>121</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>6</v>
@@ -7935,7 +7978,7 @@
         <v>166</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>49</v>
@@ -7944,7 +7987,7 @@
         <v>125</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>6</v>
@@ -7983,7 +8026,7 @@
         <v>121</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="T6" s="5" t="s">
         <v>6</v>
@@ -8155,9 +8198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU7"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8210,7 +8251,7 @@
     <col min="66" max="66" width="14.140625" style="3" customWidth="1"/>
     <col min="67" max="67" width="15.140625" style="3" customWidth="1"/>
     <col min="68" max="68" width="14.28515625" style="3" customWidth="1"/>
-    <col min="69" max="69" width="12.7109375" style="3" customWidth="1"/>
+    <col min="69" max="69" width="20.42578125" style="3" customWidth="1"/>
     <col min="70" max="70" width="15.28515625" style="3" customWidth="1"/>
     <col min="71" max="71" width="21.28515625" style="3" customWidth="1"/>
     <col min="72" max="72" width="14.85546875" style="3" customWidth="1"/>
@@ -8441,13 +8482,13 @@
     </row>
     <row r="2" spans="1:73" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>24</v>
@@ -8540,10 +8581,10 @@
         <v>13</v>
       </c>
       <c r="AH2" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="AI2" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>563</v>
       </c>
       <c r="AJ2" s="8" t="s">
         <v>56</v>
@@ -8668,7 +8709,7 @@
         <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>24</v>
@@ -8761,10 +8802,10 @@
         <v>13</v>
       </c>
       <c r="AH3" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="AI3" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>563</v>
       </c>
       <c r="AJ3" s="8" t="s">
         <v>56</v>
@@ -8883,13 +8924,13 @@
     </row>
     <row r="4" spans="1:73" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>24</v>
@@ -8982,10 +9023,10 @@
         <v>13</v>
       </c>
       <c r="AH4" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="AI4" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>563</v>
       </c>
       <c r="AJ4" s="8" t="s">
         <v>56</v>
@@ -9104,13 +9145,13 @@
     </row>
     <row r="5" spans="1:73" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>24</v>
@@ -9203,10 +9244,10 @@
         <v>13</v>
       </c>
       <c r="AH5" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="AI5" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="AI5" s="5" t="s">
-        <v>563</v>
       </c>
       <c r="AJ5" s="8" t="s">
         <v>56</v>
@@ -9325,13 +9366,13 @@
     </row>
     <row r="6" spans="1:73" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>24</v>
@@ -9424,10 +9465,10 @@
         <v>13</v>
       </c>
       <c r="AH6" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="AI6" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="AI6" s="5" t="s">
-        <v>563</v>
       </c>
       <c r="AJ6" s="8" t="s">
         <v>56</v>
@@ -9552,7 +9593,7 @@
         <v>166</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>561</v>
+        <v>590</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>24</v>
@@ -9645,10 +9686,10 @@
         <v>13</v>
       </c>
       <c r="AH7" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="AI7" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="AI7" s="5" t="s">
-        <v>563</v>
       </c>
       <c r="AJ7" s="8" t="s">
         <v>56</v>
@@ -9768,6 +9809,146 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="16"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
